--- a/data/TestPlan.xlsx
+++ b/data/TestPlan.xlsx
@@ -8,18 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\QAKursApril2021\New Project Selenium\SeleniumRepo\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD345DCD-8648-4556-97EB-DAFCC5EA6928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20712E41-B886-41E9-9AE6-77C83C7CD8C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1104" yWindow="2520" windowWidth="16908" windowHeight="9036" activeTab="4" xr2:uid="{2300C4AF-EC8E-4921-9332-E5C17FEA00BF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="9" xr2:uid="{2300C4AF-EC8E-4921-9332-E5C17FEA00BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="2" r:id="rId1"/>
     <sheet name="Registration" sheetId="5" r:id="rId2"/>
     <sheet name="LogIn" sheetId="1" r:id="rId3"/>
     <sheet name="LogOut" sheetId="3" r:id="rId4"/>
-    <sheet name="Address" sheetId="4" r:id="rId5"/>
-    <sheet name="Bug Reports" sheetId="6" r:id="rId6"/>
-    <sheet name="Sheet3" sheetId="7" r:id="rId7"/>
+    <sheet name="UpdateAddress" sheetId="4" r:id="rId5"/>
+    <sheet name="AddAddress" sheetId="8" r:id="rId6"/>
+    <sheet name="DeleteAddress" sheetId="9" r:id="rId7"/>
+    <sheet name="Bug Reports" sheetId="6" r:id="rId8"/>
+    <sheet name="UpdatePersonalInfo" sheetId="7" r:id="rId9"/>
+    <sheet name="MyWishlist" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="220">
   <si>
     <t>Visible text</t>
   </si>
@@ -168,9 +171,6 @@
     <t>Windows 10 Pro (version: 20H2)</t>
   </si>
   <si>
-    <t>Test Data3</t>
-  </si>
-  <si>
     <t>Navigate to the page: http://automationpractice.com/index.php</t>
   </si>
   <si>
@@ -399,9 +399,6 @@
     <t>Click on the "Save" button</t>
   </si>
   <si>
-    <t>The address has been updated.</t>
-  </si>
-  <si>
     <t>MAIN STREET</t>
   </si>
   <si>
@@ -466,6 +463,241 @@
   </si>
   <si>
     <t>99599</t>
+  </si>
+  <si>
+    <t>Providence Dr.</t>
+  </si>
+  <si>
+    <t>address1 is invalid.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actual result: </t>
+  </si>
+  <si>
+    <t>The address has been updated and visible.</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>PROVIDENCE DR.</t>
+  </si>
+  <si>
+    <t>Both addresses have been updated and visible.</t>
+  </si>
+  <si>
+    <t>Test Case ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clear the "Address" field </t>
+  </si>
+  <si>
+    <t>address1 is required.</t>
+  </si>
+  <si>
+    <t>Verify that address for further references cannot be updated with invalid input data</t>
+  </si>
+  <si>
+    <t>The address for further references has not been updated. Notification message about error appears.</t>
+  </si>
+  <si>
+    <t>There is 1 error</t>
+  </si>
+  <si>
+    <t>The address for further references has been updated and visible.</t>
+  </si>
+  <si>
+    <t>????</t>
+  </si>
+  <si>
+    <t>33333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                   </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Your addresses</t>
+  </si>
+  <si>
+    <t>You must register at least one phone number.</t>
+  </si>
+  <si>
+    <t>This country requires you to chose a State.</t>
+  </si>
+  <si>
+    <t>The Zip/Postal code you've entered is invalid. It must follow this format: 00000</t>
+  </si>
+  <si>
+    <t>address1 is required.</t>
+  </si>
+  <si>
+    <t>city is required.</t>
+  </si>
+  <si>
+    <t>The new address is added and visible.</t>
+  </si>
+  <si>
+    <t>Verify that mandatory fileds have to be filled</t>
+  </si>
+  <si>
+    <t>99600</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The new address is not added. Notification message about error appears. </t>
+  </si>
+  <si>
+    <t>Delete</t>
+  </si>
+  <si>
+    <t>Verify that address cannot be added with invalid input data</t>
+  </si>
+  <si>
+    <t>???</t>
+  </si>
+  <si>
+    <t>369963</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">         </t>
+  </si>
+  <si>
+    <t>Verify that address can be deleted</t>
+  </si>
+  <si>
+    <t>Click on the "Delete" button</t>
+  </si>
+  <si>
+    <t>The address has been deleted.</t>
+  </si>
+  <si>
+    <t>Click on the "MY PERSONAL INFORMATION" button</t>
+  </si>
+  <si>
+    <t>Verify that personal information can be updated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter data in the "E-mail address" field </t>
+  </si>
+  <si>
+    <t>Mara</t>
+  </si>
+  <si>
+    <t>Maric</t>
+  </si>
+  <si>
+    <t>Select the day from the drop-down menu</t>
+  </si>
+  <si>
+    <t>Select the month from the drop-down menu</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>Personal information has been updated.</t>
+  </si>
+  <si>
+    <t>Verify that personal information cannot be updated with invalid data</t>
+  </si>
+  <si>
+    <t>The password you entered is incorrect.</t>
+  </si>
+  <si>
+    <t>369</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>bug</t>
+  </si>
+  <si>
+    <t>There are 2 errors
+lastname is invalid.
+firstname is invalid.</t>
+  </si>
+  <si>
+    <t>Bug</t>
+  </si>
+  <si>
+    <t>Test Data5:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Personal information have not been updated. Notification message about error appears. </t>
+  </si>
+  <si>
+    <t>Your personal information have been successfully updated.</t>
+  </si>
+  <si>
+    <t>Your personal information have been updated.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        </t>
+  </si>
+  <si>
+    <t>Verify that personal information cannot be updated with empty mandatory fileds</t>
+  </si>
+  <si>
+    <t>There is 1 error
+firstname is required.</t>
+  </si>
+  <si>
+    <t>Click on the "Enter" button when the pop-up window comes up</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter data in the "Name" field </t>
+  </si>
+  <si>
+    <t>Verify that wishlist can be created</t>
+  </si>
+  <si>
+    <t>The wishlist is added and visible.</t>
+  </si>
+  <si>
+    <t>Dresses</t>
+  </si>
+  <si>
+    <t>Name Qty Viewed Created Direct Link Delete
+Dresses 0 0 2021-06-13 View</t>
+  </si>
+  <si>
+    <t>Verify that item can be added to the wishlist</t>
+  </si>
+  <si>
+    <t>Click on the "Women" tab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on the "X" icon on the pop-up window </t>
+  </si>
+  <si>
+    <t>Click on the tab with the name of user in main menu</t>
+  </si>
+  <si>
+    <t>Click on the "MY WISHLIST" button</t>
+  </si>
+  <si>
+    <t>The item is added and visible.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The user is logged in. </t>
+  </si>
+  <si>
+    <t>Click on "Add to Wishlist" option under item picture</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Printed Dress</t>
   </si>
 </sst>
 </file>
@@ -570,7 +802,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -605,6 +837,10 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1071,168 +1307,168 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D3" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="F3" s="8" t="s">
         <v>55</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E4" s="8"/>
       <c r="F4" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E7" s="8"/>
       <c r="F7" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
       <c r="C9" s="19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F9" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E11" s="8"/>
       <c r="F11" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -1334,6 +1570,292 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D35E7DD-21AC-4F9A-97E6-FB28FE6E1A8C}">
+  <dimension ref="A2:G32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.6640625" customWidth="1"/>
+    <col min="2" max="2" width="29.5546875" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B2" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+    </row>
+    <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B3" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="D3" s="14"/>
+    </row>
+    <row r="4" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B4" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="14"/>
+    </row>
+    <row r="5" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B5" s="10"/>
+      <c r="C5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="14"/>
+    </row>
+    <row r="6" spans="1:5" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="B6" s="10"/>
+      <c r="C6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="14"/>
+    </row>
+    <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B7" s="10"/>
+      <c r="C7" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D7" s="14"/>
+    </row>
+    <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B8" s="10"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="14"/>
+    </row>
+    <row r="9" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B9" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B10" s="2"/>
+      <c r="C10" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D10" s="9"/>
+    </row>
+    <row r="11" spans="1:5" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C11" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="E11"/>
+    </row>
+    <row r="12" spans="1:5" s="2" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="C12" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D12" s="9"/>
+    </row>
+    <row r="13" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B13" s="2"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B14" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="16" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2"/>
+      <c r="B15" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="21" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B18" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B19" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="D19" s="14"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B20" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="14"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B21" s="10"/>
+      <c r="C21" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D21" s="14"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="B22" s="10"/>
+      <c r="C22" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="14"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B23" s="10"/>
+      <c r="C23" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D23" s="14"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B24" s="10"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B25" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+    </row>
+    <row r="26" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B26" s="2"/>
+      <c r="C26" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="D26" s="9"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+    </row>
+    <row r="27" spans="1:7" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C27" s="14" t="s">
+        <v>217</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" s="2" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="C28" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="D28" s="9"/>
+    </row>
+    <row r="29" spans="1:7" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C29" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="D29" s="9"/>
+    </row>
+    <row r="30" spans="1:7" s="2" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="C30" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D30" s="9"/>
+    </row>
+    <row r="31" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B31" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+    </row>
+    <row r="32" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B32" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1383,14 +1905,14 @@
     <row r="5" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A5" s="10"/>
       <c r="B5" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C5" s="14"/>
     </row>
     <row r="6" spans="1:3" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A6" s="10"/>
       <c r="B6" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C6" s="14"/>
     </row>
@@ -1408,13 +1930,13 @@
     </row>
     <row r="9" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="C9" s="15" t="s">
         <v>48</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
@@ -1422,7 +1944,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C10" s="14" t="s">
         <v>4</v>
@@ -1596,10 +2118,10 @@
     </row>
     <row r="27" spans="1:3" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27" s="14" t="s">
         <v>52</v>
-      </c>
-      <c r="B27" s="14" t="s">
-        <v>53</v>
       </c>
       <c r="C27" s="14"/>
     </row>
@@ -1641,7 +2163,7 @@
         <v>42</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C33" s="14"/>
     </row>
@@ -1657,14 +2179,14 @@
     <row r="35" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A35" s="10"/>
       <c r="B35" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C35" s="14"/>
     </row>
     <row r="36" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A36" s="10"/>
       <c r="B36" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C36" s="14"/>
     </row>
@@ -1682,16 +2204,16 @@
     </row>
     <row r="39" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B39" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B39" s="10" t="s">
+      <c r="C39" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="C39" s="15" t="s">
-        <v>49</v>
-      </c>
       <c r="D39" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
@@ -1699,13 +2221,13 @@
         <v>1</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
@@ -1724,24 +2246,24 @@
     </row>
     <row r="43" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C43" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C44" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
@@ -1758,7 +2280,7 @@
         <v>42</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C48" s="14"/>
     </row>
@@ -1774,14 +2296,14 @@
     <row r="50" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A50" s="10"/>
       <c r="B50" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C50" s="14"/>
     </row>
     <row r="51" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A51" s="10"/>
       <c r="B51" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C51" s="14"/>
     </row>
@@ -1799,16 +2321,16 @@
     </row>
     <row r="54" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A54" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B54" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B54" s="10" t="s">
-        <v>48</v>
-      </c>
       <c r="C54" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D54" s="15" t="s">
         <v>64</v>
-      </c>
-      <c r="D54" s="15" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
@@ -1816,13 +2338,13 @@
         <v>1</v>
       </c>
       <c r="B55" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C55" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D55" t="s">
         <v>115</v>
-      </c>
-      <c r="D55" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
@@ -1841,20 +2363,20 @@
     </row>
     <row r="58" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -1905,7 +2427,7 @@
         <v>42</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
@@ -1927,7 +2449,7 @@
     <row r="5" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B5" s="10"/>
       <c r="C5" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -1937,7 +2459,7 @@
     <row r="6" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B6" s="10"/>
       <c r="C6" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -1964,19 +2486,19 @@
     </row>
     <row r="9" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B9" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="D9" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="10" t="s">
-        <v>49</v>
-      </c>
       <c r="E9" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
@@ -1992,10 +2514,10 @@
         <v>4</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -2038,16 +2560,16 @@
     </row>
     <row r="14" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B14" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
@@ -2056,7 +2578,7 @@
     </row>
     <row r="15" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3" t="s">
@@ -2095,7 +2617,7 @@
         <v>42</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
@@ -2113,7 +2635,7 @@
     <row r="21" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B21" s="10"/>
       <c r="C21" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
@@ -2121,7 +2643,7 @@
     <row r="22" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B22" s="10"/>
       <c r="C22" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
@@ -2142,13 +2664,13 @@
     </row>
     <row r="25" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B25" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="10" t="s">
-        <v>48</v>
-      </c>
       <c r="D25" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
@@ -2193,18 +2715,18 @@
     </row>
     <row r="30" spans="2:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
     </row>
     <row r="31" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B31" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3" t="s">
@@ -2221,7 +2743,7 @@
     </row>
     <row r="33" spans="2:7" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B33" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -2250,7 +2772,7 @@
         <v>42</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
@@ -2270,7 +2792,7 @@
     <row r="38" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B38" s="10"/>
       <c r="C38" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
@@ -2279,7 +2801,7 @@
     <row r="39" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B39" s="10"/>
       <c r="C39" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
@@ -2303,22 +2825,22 @@
     </row>
     <row r="42" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B42" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C42" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C42" s="10" t="s">
-        <v>48</v>
-      </c>
       <c r="D42" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E42" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="E42" s="10" t="s">
-        <v>65</v>
-      </c>
       <c r="F42" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="43" spans="2:7" ht="31.2" x14ac:dyDescent="0.3">
@@ -2352,13 +2874,13 @@
         <v>9</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="45" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
@@ -2380,25 +2902,25 @@
     </row>
     <row r="47" spans="2:7" ht="78" x14ac:dyDescent="0.3">
       <c r="B47" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="3" t="s">
@@ -2422,12 +2944,12 @@
     </row>
     <row r="50" spans="2:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="51" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
@@ -2435,7 +2957,7 @@
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
       <c r="E51" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="52" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
@@ -2465,7 +2987,7 @@
         <v>42</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
@@ -2483,7 +3005,7 @@
     <row r="57" spans="2:6" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B57" s="10"/>
       <c r="C57" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
@@ -2491,7 +3013,7 @@
     <row r="58" spans="2:6" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B58" s="10"/>
       <c r="C58" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
@@ -2512,19 +3034,19 @@
     </row>
     <row r="61" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B61" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C61" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C61" s="10" t="s">
-        <v>48</v>
-      </c>
       <c r="D61" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E61" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="E61" s="10" t="s">
-        <v>65</v>
-      </c>
       <c r="F61" s="10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="62" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
@@ -2569,29 +3091,29 @@
     </row>
     <row r="66" spans="2:6" ht="78" x14ac:dyDescent="0.3">
       <c r="B66" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C66" s="3"/>
       <c r="D66" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="67" spans="2:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B67" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F67" s="3" t="s">
         <v>11</v>
@@ -2619,7 +3141,7 @@
         <v>42</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
@@ -2639,7 +3161,7 @@
     <row r="72" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B72" s="10"/>
       <c r="C72" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
@@ -2647,7 +3169,7 @@
     <row r="73" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B73" s="10"/>
       <c r="C73" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
@@ -2668,10 +3190,10 @@
     </row>
     <row r="76" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B76" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C76" s="10" t="s">
         <v>47</v>
-      </c>
-      <c r="C76" s="10" t="s">
-        <v>48</v>
       </c>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
@@ -2682,7 +3204,7 @@
         <v>1</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
@@ -2695,21 +3217,21 @@
     </row>
     <row r="79" spans="2:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B79" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C79" s="3"/>
       <c r="D79" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E79" s="3"/>
     </row>
     <row r="80" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B80" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C80" s="3"/>
       <c r="D80" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E80" s="3"/>
     </row>
@@ -2753,7 +3275,7 @@
         <v>42</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D2" s="14"/>
       <c r="E2" s="3"/>
@@ -2775,7 +3297,7 @@
     <row r="4" spans="2:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B4" s="10"/>
       <c r="C4" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D4" s="14"/>
       <c r="E4" s="3"/>
@@ -2785,7 +3307,7 @@
     <row r="5" spans="2:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="B5" s="10"/>
       <c r="C5" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D5" s="14"/>
       <c r="E5" s="3"/>
@@ -2812,13 +3334,13 @@
     </row>
     <row r="8" spans="2:7" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="D8" s="15" t="s">
         <v>48</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>49</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -2876,15 +3398,15 @@
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D15" t="s">
         <v>6</v>
@@ -2902,7 +3424,7 @@
         <v>42</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D18" s="14"/>
     </row>
@@ -2918,14 +3440,14 @@
     <row r="20" spans="2:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B20" s="10"/>
       <c r="C20" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D20" s="14"/>
     </row>
     <row r="21" spans="2:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="B21" s="10"/>
       <c r="C21" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D21" s="14"/>
     </row>
@@ -2943,13 +3465,13 @@
     </row>
     <row r="24" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B24" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="D24" s="15" t="s">
         <v>48</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="25" spans="2:4" ht="46.8" x14ac:dyDescent="0.3">
@@ -2988,7 +3510,7 @@
         <v>4</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D28" s="3"/>
     </row>
@@ -2999,16 +3521,16 @@
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B30" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B31" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2" t="s">
@@ -3022,10 +3544,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C0D49DB-2967-4506-AF05-B88227F983E6}">
-  <dimension ref="B2:G69"/>
+  <dimension ref="B2:G90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="D68" sqref="D68"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3035,25 +3557,26 @@
     <col min="3" max="3" width="29.5546875" customWidth="1"/>
     <col min="4" max="4" width="21.5546875" customWidth="1"/>
     <col min="5" max="5" width="15.88671875" customWidth="1"/>
+    <col min="6" max="6" width="22.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:5" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="10" t="s">
         <v>41</v>
       </c>
       <c r="C2" s="14"/>
       <c r="D2" s="14"/>
     </row>
-    <row r="3" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B3" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>125</v>
+      <c r="C3" s="13" t="s">
+        <v>123</v>
       </c>
       <c r="D3" s="14"/>
     </row>
-    <row r="4" spans="2:4" s="2" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:5" s="2" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B4" s="10" t="s">
         <v>43</v>
       </c>
@@ -3062,535 +3585,1539 @@
       </c>
       <c r="D4" s="14"/>
     </row>
-    <row r="5" spans="2:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:5" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B5" s="10"/>
       <c r="C5" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D5" s="14"/>
     </row>
-    <row r="6" spans="2:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:5" ht="46.8" x14ac:dyDescent="0.3">
       <c r="B6" s="10"/>
       <c r="C6" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D6" s="14"/>
     </row>
-    <row r="7" spans="2:4" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:5" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="10"/>
       <c r="C7" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D7" s="14"/>
     </row>
-    <row r="8" spans="2:4" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="10"/>
       <c r="C8" s="3"/>
       <c r="D8" s="14"/>
     </row>
-    <row r="9" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B9" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>48</v>
-      </c>
       <c r="D9" s="15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" ht="31.2" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B10" s="2">
         <v>1</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="2:5" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B11" s="2">
+        <v>2</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="D10" s="4"/>
+      <c r="D11" s="5"/>
+    </row>
+    <row r="12" spans="2:5" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B12" s="2">
+        <v>3</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D12" s="5"/>
+    </row>
+    <row r="13" spans="2:5" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B13" s="2">
+        <v>4</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="B14" s="2">
+        <v>5</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B15" s="2">
+        <v>6</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="2:7" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="B17" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B18" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="D19" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B21" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+    </row>
+    <row r="22" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B22" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="D22" s="14"/>
+    </row>
+    <row r="23" spans="2:7" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B23" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="14"/>
+    </row>
+    <row r="24" spans="2:7" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B24" s="10"/>
+      <c r="C24" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" s="14"/>
+    </row>
+    <row r="25" spans="2:7" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="B25" s="10"/>
+      <c r="C25" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25" s="14"/>
+    </row>
+    <row r="26" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B26" s="10"/>
+      <c r="C26" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D26" s="14"/>
+    </row>
+    <row r="27" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B27" s="10"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="14"/>
+    </row>
+    <row r="28" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B28" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B29" s="2">
+        <v>1</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D29" s="4"/>
+    </row>
+    <row r="30" spans="2:7" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B30" s="2">
+        <v>2</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D30" s="5"/>
+    </row>
+    <row r="31" spans="2:7" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C31" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="E31" s="9">
+        <v>333333</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="B32" s="2">
+        <v>3</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B33" s="3">
+        <v>4</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D33" s="3"/>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+    </row>
+    <row r="35" spans="2:6" ht="171.6" x14ac:dyDescent="0.3">
+      <c r="B35" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B36" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="D37" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" s="2" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="B38" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D38" s="12"/>
+      <c r="E38" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D39" s="12"/>
+      <c r="E39" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B40" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+    </row>
+    <row r="41" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B41" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="D41" s="14"/>
+    </row>
+    <row r="42" spans="2:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B42" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D42" s="14"/>
+    </row>
+    <row r="43" spans="2:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B43" s="10"/>
+      <c r="C43" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D43" s="14"/>
+    </row>
+    <row r="44" spans="2:6" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="B44" s="10"/>
+      <c r="C44" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D44" s="14"/>
+    </row>
+    <row r="45" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B45" s="10"/>
+      <c r="C45" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D45" s="14"/>
+    </row>
+    <row r="46" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B46" s="10"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="14"/>
+    </row>
+    <row r="47" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B47" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D47" s="15"/>
+    </row>
+    <row r="48" spans="2:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B48" s="2">
+        <v>1</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D48" s="4"/>
+    </row>
+    <row r="49" spans="2:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B49" s="2">
+        <v>2</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D49" s="5"/>
+    </row>
+    <row r="50" spans="2:6" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B50" s="2">
+        <v>3</v>
+      </c>
+      <c r="C50" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="D50" s="5"/>
+    </row>
+    <row r="51" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B51" s="3">
+        <v>4</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D51" s="3"/>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+    </row>
+    <row r="53" spans="2:6" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="B53" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B54" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="12"/>
+    </row>
+    <row r="56" spans="2:6" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B56" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
+    </row>
+    <row r="57" spans="2:6" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B57" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C57" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="D57" s="14"/>
+    </row>
+    <row r="58" spans="2:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B58" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D58" s="14"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+    </row>
+    <row r="59" spans="2:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B59" s="10"/>
+      <c r="C59" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D59" s="14"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+    </row>
+    <row r="60" spans="2:6" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="B60" s="10"/>
+      <c r="C60" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D60" s="14"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+    </row>
+    <row r="61" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B61" s="10"/>
+      <c r="C61" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D61" s="14"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+    </row>
+    <row r="62" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B62" s="10"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+    </row>
+    <row r="63" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B63" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C63" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D63" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="E63" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="F63" s="15" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B64" s="2">
+        <v>1</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D64" s="4"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+    </row>
+    <row r="65" spans="2:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B65" s="2">
+        <v>2</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D65" s="5"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+    </row>
+    <row r="66" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B66" s="2">
+        <v>3</v>
+      </c>
+      <c r="C66" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="D66" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="E66" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="F66" s="9" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="B67" s="2">
+        <v>4</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D67" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="E67" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="F67" s="9" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B68" s="2">
+        <v>5</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D68" s="3"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+    </row>
+    <row r="70" spans="2:6" ht="124.8" x14ac:dyDescent="0.3">
+      <c r="B70" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B71" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6" ht="78" x14ac:dyDescent="0.3">
+      <c r="B72" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C72" s="2"/>
+      <c r="D72" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B73" s="2"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="12"/>
+      <c r="E73" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F73" s="2"/>
+    </row>
+    <row r="75" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B75" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="C75" s="14"/>
+      <c r="D75" s="14"/>
+      <c r="E75" s="2"/>
+    </row>
+    <row r="76" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B76" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C76" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="D76" s="14"/>
+      <c r="E76" s="2"/>
+    </row>
+    <row r="77" spans="2:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B77" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D77" s="14"/>
+      <c r="E77" s="2"/>
+    </row>
+    <row r="78" spans="2:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B78" s="10"/>
+      <c r="C78" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D78" s="14"/>
+      <c r="E78" s="2"/>
+    </row>
+    <row r="79" spans="2:6" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="B79" s="10"/>
+      <c r="C79" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D79" s="14"/>
+      <c r="E79" s="2"/>
+    </row>
+    <row r="80" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B80" s="10"/>
+      <c r="C80" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D80" s="14"/>
+      <c r="E80" s="2"/>
+    </row>
+    <row r="81" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B81" s="10"/>
+      <c r="C81" s="3"/>
+      <c r="D81" s="14"/>
+      <c r="E81" s="2"/>
+    </row>
+    <row r="82" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B82" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C82" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D82" s="15"/>
+      <c r="E82" s="2"/>
+    </row>
+    <row r="83" spans="2:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B83" s="2">
+        <v>1</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D83" s="4"/>
+      <c r="E83" s="2"/>
+    </row>
+    <row r="84" spans="2:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B84" s="2">
+        <v>2</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D84" s="5"/>
+      <c r="E84" s="2"/>
+    </row>
+    <row r="85" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B85" s="2"/>
+      <c r="C85" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="D85" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="E85" s="9"/>
+      <c r="F85" s="9"/>
+    </row>
+    <row r="86" spans="2:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B86" s="2">
+        <v>3</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D86" s="5"/>
+      <c r="E86" s="2"/>
+    </row>
+    <row r="87" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B87" s="3">
+        <v>4</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D87" s="3"/>
+      <c r="E87" s="2"/>
+    </row>
+    <row r="88" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B88" s="2"/>
+      <c r="C88" s="2"/>
+      <c r="D88" s="2"/>
+      <c r="E88" s="2"/>
+    </row>
+    <row r="89" spans="2:6" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="B89" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C89" s="3"/>
+      <c r="D89" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E89" s="2"/>
+    </row>
+    <row r="90" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B90" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C90" s="2"/>
+      <c r="D90" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E90" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C43D6E25-CA09-4B28-ABDD-50E4432803CA}">
+  <dimension ref="B2:J59"/>
+  <sheetViews>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="18.77734375" customWidth="1"/>
+    <col min="3" max="3" width="33.21875" customWidth="1"/>
+    <col min="4" max="4" width="26.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="B2" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+    </row>
+    <row r="3" spans="2:4" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="B3" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D3" s="14"/>
+    </row>
+    <row r="4" spans="2:4" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="B4" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="14"/>
+    </row>
+    <row r="5" spans="2:4" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="10"/>
+      <c r="C5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="14"/>
+    </row>
+    <row r="6" spans="2:4" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="10"/>
+      <c r="C6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="14"/>
+    </row>
+    <row r="7" spans="2:4" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="10"/>
+      <c r="C7" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D7" s="14"/>
+    </row>
+    <row r="8" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B8" s="10"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="14"/>
+    </row>
+    <row r="9" spans="2:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B9" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C10" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C11" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C12" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C13" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C14" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C15" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="D15" s="16">
+        <v>369963</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C16" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="D16" s="16">
+        <v>123321</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B18" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B19" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B23" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+    </row>
+    <row r="24" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B24" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="D24" s="14"/>
+    </row>
+    <row r="25" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B25" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="14"/>
+    </row>
+    <row r="26" spans="2:10" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B26" s="10"/>
+      <c r="C26" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" s="14"/>
+      <c r="J26" s="15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="B27" s="10"/>
+      <c r="C27" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D27" s="14"/>
+      <c r="J27" s="2"/>
+    </row>
+    <row r="28" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B28" s="10"/>
+      <c r="C28" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D28" s="14"/>
+      <c r="J28" s="2"/>
+    </row>
+    <row r="29" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B29" s="10"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="14"/>
+      <c r="J29" s="2"/>
+    </row>
+    <row r="30" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B30" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="J30" s="2"/>
+    </row>
+    <row r="31" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B31" s="2"/>
+      <c r="C31" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="J31" s="2"/>
+    </row>
+    <row r="32" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B32" s="2"/>
+      <c r="C32" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="J32" s="2"/>
+    </row>
+    <row r="33" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B33" s="2"/>
+      <c r="C33" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="J33" s="2"/>
+    </row>
+    <row r="34" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B34" s="2"/>
+      <c r="C34" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D34" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="J34" s="2"/>
+    </row>
+    <row r="35" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B35" s="2"/>
+      <c r="C35" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="D35" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="J35" s="16" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B36" s="2"/>
+      <c r="C36" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="D36" s="16">
+        <v>369963</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B37" s="2"/>
+      <c r="C37" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="D37" s="16">
+        <v>123321</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="B38" s="2"/>
+      <c r="C38" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B39" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B40" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B42" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+    </row>
+    <row r="43" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B43" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="D43" s="14"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+    </row>
+    <row r="44" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B44" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D44" s="14"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+    </row>
+    <row r="45" spans="2:10" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B45" s="10"/>
+      <c r="C45" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D45" s="14"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+    </row>
+    <row r="46" spans="2:10" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="B46" s="10"/>
+      <c r="C46" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D46" s="14"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+    </row>
+    <row r="47" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B47" s="10"/>
+      <c r="C47" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D47" s="14"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+    </row>
+    <row r="48" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B48" s="10"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+    </row>
+    <row r="49" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B49" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D49" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+    </row>
+    <row r="50" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B50" s="2"/>
+      <c r="C50" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+    </row>
+    <row r="51" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B51" s="2"/>
+      <c r="C51" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="D51" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="E51" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+    </row>
+    <row r="52" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B52" s="2"/>
+      <c r="C52" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="D52" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E52" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+    </row>
+    <row r="53" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B53" s="2"/>
+      <c r="C53" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D53" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="E53" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+    </row>
+    <row r="54" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B54" s="2"/>
+      <c r="C54" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="D54" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E54" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+    </row>
+    <row r="55" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B55" s="2"/>
+      <c r="C55" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="D55" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="E55" s="16">
+        <v>369963</v>
+      </c>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+    </row>
+    <row r="56" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B56" s="2"/>
+      <c r="C56" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="D56" s="16">
+        <v>123321</v>
+      </c>
+      <c r="E56" s="16">
+        <v>123321</v>
+      </c>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+    </row>
+    <row r="57" spans="2:8" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="B57" s="2"/>
+      <c r="C57" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D57" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="E57" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+    </row>
+    <row r="58" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B58" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C58" s="2"/>
+      <c r="D58" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B59" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EED75AD-9021-4892-9D38-EA477E641260}">
+  <dimension ref="B2:D16"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="16.21875" customWidth="1"/>
+    <col min="3" max="3" width="17.5546875" customWidth="1"/>
+    <col min="4" max="4" width="20.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="B2" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+    </row>
+    <row r="3" spans="2:4" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="B3" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="D3" s="14"/>
+    </row>
+    <row r="4" spans="2:4" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="B4" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="14"/>
+    </row>
+    <row r="5" spans="2:4" ht="109.2" x14ac:dyDescent="0.3">
+      <c r="B5" s="10"/>
+      <c r="C5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="14"/>
+    </row>
+    <row r="6" spans="2:4" ht="124.8" x14ac:dyDescent="0.3">
+      <c r="B6" s="10"/>
+      <c r="C6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="14"/>
+    </row>
+    <row r="7" spans="2:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B7" s="10"/>
+      <c r="C7" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D7" s="14"/>
+    </row>
+    <row r="8" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B8" s="10"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="14"/>
+    </row>
+    <row r="9" spans="2:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B9" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="78" x14ac:dyDescent="0.3">
+      <c r="B10" s="2">
+        <v>2</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D10" s="5"/>
     </row>
     <row r="11" spans="2:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B11" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>119</v>
+        <v>177</v>
       </c>
       <c r="D11" s="5"/>
     </row>
-    <row r="12" spans="2:4" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:4" ht="62.4" x14ac:dyDescent="0.3">
       <c r="B12" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="D12" s="5"/>
-    </row>
-    <row r="13" spans="2:4" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="B13" s="2">
-        <v>4</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B14" s="2">
-        <v>5</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="D14" s="3"/>
+        <v>204</v>
+      </c>
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="2:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B14" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B15" s="2"/>
+      <c r="B15" s="12"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="2:4" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B16" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B17" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B19" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-    </row>
-    <row r="20" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B20" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="D20" s="14"/>
-    </row>
-    <row r="21" spans="2:7" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B21" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D21" s="14"/>
-    </row>
-    <row r="22" spans="2:7" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B22" s="10"/>
-      <c r="C22" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D22" s="14"/>
-    </row>
-    <row r="23" spans="2:7" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="B23" s="10"/>
-      <c r="C23" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D23" s="14"/>
-    </row>
-    <row r="24" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B24" s="10"/>
-      <c r="C24" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="D24" s="14"/>
-    </row>
-    <row r="25" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B25" s="10"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="14"/>
-    </row>
-    <row r="26" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B26" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D26" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="E26" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="F26" s="15" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B27" s="2">
-        <v>1</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="D27" s="4"/>
-    </row>
-    <row r="28" spans="2:7" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B28" s="2">
-        <v>2</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="D28" s="5"/>
-    </row>
-    <row r="29" spans="2:7" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="B29" s="2">
-        <v>3</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="E29" s="9">
-        <v>333333</v>
-      </c>
-      <c r="F29" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="G29" s="9" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B30" s="3">
-        <v>4</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="D30" s="3"/>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-    </row>
-    <row r="32" spans="2:7" ht="93.6" x14ac:dyDescent="0.3">
-      <c r="B32" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B33" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="D34" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="35" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B35" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-    </row>
-    <row r="36" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B36" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="D36" s="14"/>
-    </row>
-    <row r="37" spans="2:5" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B37" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D37" s="14"/>
-    </row>
-    <row r="38" spans="2:5" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B38" s="10"/>
-      <c r="C38" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D38" s="14"/>
-    </row>
-    <row r="39" spans="2:5" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="B39" s="10"/>
-      <c r="C39" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D39" s="14"/>
-    </row>
-    <row r="40" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B40" s="10"/>
-      <c r="C40" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="D40" s="14"/>
-    </row>
-    <row r="41" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B41" s="10"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="14"/>
-    </row>
-    <row r="42" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B42" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D42" s="15"/>
-    </row>
-    <row r="43" spans="2:5" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B43" s="2">
-        <v>1</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="D43" s="4"/>
-    </row>
-    <row r="44" spans="2:5" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B44" s="2">
-        <v>2</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="D44" s="5"/>
-    </row>
-    <row r="45" spans="2:5" s="2" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B45" s="2">
-        <v>3</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="D45" s="5"/>
-    </row>
-    <row r="46" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B46" s="3">
-        <v>4</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="D46" s="3"/>
-    </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-    </row>
-    <row r="48" spans="2:5" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="B48" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B49" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="52" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B52" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C52" s="14"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="2"/>
-    </row>
-    <row r="53" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B53" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="D53" s="14"/>
-      <c r="E53" s="2"/>
-    </row>
-    <row r="54" spans="2:5" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B54" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D54" s="14"/>
-      <c r="E54" s="2"/>
-    </row>
-    <row r="55" spans="2:5" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B55" s="10"/>
-      <c r="C55" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D55" s="14"/>
-      <c r="E55" s="2"/>
-    </row>
-    <row r="56" spans="2:5" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="B56" s="10"/>
-      <c r="C56" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D56" s="14"/>
-      <c r="E56" s="2"/>
-    </row>
-    <row r="57" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B57" s="10"/>
-      <c r="C57" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="D57" s="14"/>
-      <c r="E57" s="2"/>
-    </row>
-    <row r="58" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B58" s="10"/>
-      <c r="C58" s="3"/>
-      <c r="D58" s="14"/>
-      <c r="E58" s="2"/>
-    </row>
-    <row r="59" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B59" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="C59" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D59" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="E59" s="2"/>
-    </row>
-    <row r="60" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C60" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="D60" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="61" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C61" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="D61" s="14" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="62" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C62" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="D62" s="14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="63" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C63" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="D63" s="16" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="64" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C64" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="D64" s="16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="65" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C65" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="D65" s="16">
-        <v>369963</v>
-      </c>
-    </row>
-    <row r="66" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C66" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="D66" s="16">
-        <v>123321</v>
-      </c>
-    </row>
-    <row r="67" spans="2:4" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="C67" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D67" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B68" s="12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B69" s="12" t="s">
-        <v>63</v>
-      </c>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D5DC335-FBBD-498A-B596-929A8D4E494F}">
   <dimension ref="B2:D52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
@@ -3603,31 +5130,31 @@
   <sheetData>
     <row r="2" spans="2:4" ht="21" x14ac:dyDescent="0.4">
       <c r="B2" s="17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B4" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B5" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D5" s="2"/>
     </row>
     <row r="6" spans="2:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="B6" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>87</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>88</v>
       </c>
       <c r="D6" s="2"/>
     </row>
@@ -3643,14 +5170,14 @@
     <row r="8" spans="2:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="10"/>
       <c r="C8" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D8" s="2"/>
     </row>
     <row r="9" spans="2:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="B9" s="10"/>
       <c r="C9" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D9" s="2"/>
     </row>
@@ -3671,13 +5198,13 @@
       <c r="C12" s="3"/>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="2:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="46.8" x14ac:dyDescent="0.3">
@@ -3688,7 +5215,7 @@
         <v>1</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="2:4" ht="31.2" x14ac:dyDescent="0.3">
@@ -3716,7 +5243,7 @@
     </row>
     <row r="18" spans="2:4" ht="78" x14ac:dyDescent="0.3">
       <c r="D18" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
@@ -3729,7 +5256,7 @@
     </row>
     <row r="21" spans="2:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="D21" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
@@ -3739,39 +5266,39 @@
     </row>
     <row r="24" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B24" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C24" s="2"/>
     </row>
     <row r="25" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B25" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="2"/>
     </row>
     <row r="28" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B28" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="2"/>
     </row>
     <row r="29" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B29" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D29" s="2"/>
     </row>
     <row r="30" spans="2:4" ht="124.8" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D30" s="2"/>
     </row>
@@ -3791,14 +5318,14 @@
     <row r="33" spans="2:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B33" s="10"/>
       <c r="C33" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D33" s="2"/>
     </row>
     <row r="34" spans="2:4" ht="46.8" x14ac:dyDescent="0.3">
       <c r="B34" s="10"/>
       <c r="C34" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D34" s="2"/>
     </row>
@@ -3821,11 +5348,11 @@
     </row>
     <row r="38" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B38" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C38" s="10"/>
       <c r="D38" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="39" spans="2:4" ht="46.8" x14ac:dyDescent="0.3">
@@ -3847,7 +5374,7 @@
         <v>2</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="41" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
@@ -3894,20 +5421,20 @@
     </row>
     <row r="49" spans="2:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B49" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="50" spans="2:4" ht="78" x14ac:dyDescent="0.3">
       <c r="B50" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="51" spans="2:4" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -3917,7 +5444,7 @@
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B52" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -3929,14 +5456,650 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{490D565D-7039-4745-B0AF-5E7AF284AB13}">
-  <dimension ref="A1"/>
+  <dimension ref="B2:H64"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54:C59"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.21875" customWidth="1"/>
+    <col min="6" max="6" width="17.21875" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" customWidth="1"/>
+    <col min="8" max="8" width="13.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B2" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B3" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="D3" s="14"/>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B4" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="14"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="2:5" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B5" s="10"/>
+      <c r="C5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="14"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="2:5" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B6" s="10"/>
+      <c r="C6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B7" s="10"/>
+      <c r="C7" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D7" s="14"/>
+    </row>
+    <row r="8" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B8" s="10"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="14"/>
+    </row>
+    <row r="9" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B9" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B10" s="2">
+        <v>2</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D10" s="5"/>
+    </row>
+    <row r="11" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B11" s="2">
+        <v>4</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C12" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C13" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C14" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C15" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C16" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C17" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B18" s="2">
+        <v>6</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D18" s="3"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="2:8" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B20" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B21" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B23" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+    </row>
+    <row r="24" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B24" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="D24" s="14"/>
+    </row>
+    <row r="25" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B25" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="14"/>
+    </row>
+    <row r="26" spans="2:8" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B26" s="10"/>
+      <c r="C26" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" s="14"/>
+    </row>
+    <row r="27" spans="2:8" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B27" s="10"/>
+      <c r="C27" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D27" s="14"/>
+    </row>
+    <row r="28" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B28" s="10"/>
+      <c r="C28" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D28" s="14"/>
+    </row>
+    <row r="29" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B29" s="10"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="14"/>
+    </row>
+    <row r="30" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B30" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="E30" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="F30" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="G30" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="H30" s="15" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B31" s="2">
+        <v>2</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+    </row>
+    <row r="32" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B32" s="2">
+        <v>4</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B33" s="2"/>
+      <c r="C33" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B34" s="2"/>
+      <c r="C34" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B35" s="2"/>
+      <c r="C35" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="D35" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="E35" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="F35" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="G35" s="20" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B36" s="2"/>
+      <c r="C36" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="D36" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="E36" s="20" t="s">
+        <v>193</v>
+      </c>
+      <c r="F36" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="G36" s="20" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B37" s="2"/>
+      <c r="C37" s="14" t="s">
+        <v>184</v>
+      </c>
+      <c r="D37" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="E37" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="F37" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="G37" s="20" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B38" s="2"/>
+      <c r="C38" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D38" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="E38" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="F38" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="G38" s="20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B39" s="2">
+        <v>6</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+    </row>
+    <row r="41" spans="2:7" ht="140.4" x14ac:dyDescent="0.3">
+      <c r="B41" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B42" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E42" t="s">
+        <v>155</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="E43" t="s">
+        <v>194</v>
+      </c>
+      <c r="G43" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
+        <v>66</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B46" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="2"/>
+    </row>
+    <row r="47" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B47" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C47" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="D47" s="14"/>
+      <c r="E47" s="2"/>
+    </row>
+    <row r="48" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B48" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D48" s="14"/>
+      <c r="E48" s="2"/>
+    </row>
+    <row r="49" spans="2:5" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B49" s="10"/>
+      <c r="C49" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D49" s="14"/>
+      <c r="E49" s="2"/>
+    </row>
+    <row r="50" spans="2:5" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B50" s="10"/>
+      <c r="C50" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D50" s="14"/>
+      <c r="E50" s="2"/>
+    </row>
+    <row r="51" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B51" s="10"/>
+      <c r="C51" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D51" s="14"/>
+      <c r="E51" s="2"/>
+    </row>
+    <row r="52" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B52" s="10"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="2"/>
+    </row>
+    <row r="53" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B53" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D53" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="E53" s="15"/>
+    </row>
+    <row r="54" spans="2:5" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B54" s="2">
+        <v>2</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+    </row>
+    <row r="55" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B55" s="2">
+        <v>4</v>
+      </c>
+      <c r="C55" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+    </row>
+    <row r="56" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B56" s="2"/>
+      <c r="C56" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E56" s="2"/>
+    </row>
+    <row r="57" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B57" s="2"/>
+      <c r="C57" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E57" s="1"/>
+    </row>
+    <row r="58" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B58" s="2"/>
+      <c r="C58" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D58" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="E58" s="20"/>
+    </row>
+    <row r="59" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B59" s="2">
+        <v>6</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+    </row>
+    <row r="61" spans="2:5" ht="78" x14ac:dyDescent="0.3">
+      <c r="B61" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E61" s="3"/>
+    </row>
+    <row r="62" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B62" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C62" s="2"/>
+      <c r="D62" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="E62" s="2"/>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/TestPlan.xlsx
+++ b/data/TestPlan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\QAKursApril2021\New Project Selenium\SeleniumRepo\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20712E41-B886-41E9-9AE6-77C83C7CD8C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB502993-965F-44D8-91C6-296C9B8386ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="4" activeTab="9" xr2:uid="{2300C4AF-EC8E-4921-9332-E5C17FEA00BF}"/>
+    <workbookView xWindow="-84" yWindow="336" windowWidth="14316" windowHeight="9036" firstSheet="1" activeTab="5" xr2:uid="{2300C4AF-EC8E-4921-9332-E5C17FEA00BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="238">
   <si>
     <t>Visible text</t>
   </si>
@@ -210,15 +210,9 @@
     <t>LogIn</t>
   </si>
   <si>
-    <t>Verify thet user can log in with valid email and password</t>
-  </si>
-  <si>
     <t>User is logged in. My account page is opened</t>
   </si>
   <si>
-    <t>Verify thet user can not log in with incorect email and correct password</t>
-  </si>
-  <si>
     <t>User is not logged in. My account page is not opened. Notification message about error appeard.</t>
   </si>
   <si>
@@ -279,9 +273,6 @@
     <t xml:space="preserve">User is logged out. </t>
   </si>
   <si>
-    <t>BUG REPORTS</t>
-  </si>
-  <si>
     <t>Title:</t>
   </si>
   <si>
@@ -291,15 +282,9 @@
     <t>Test Data</t>
   </si>
   <si>
-    <t>User can log in with incorect email and correct password</t>
-  </si>
-  <si>
     <t>Description:</t>
   </si>
   <si>
-    <t xml:space="preserve">The the "Email address" field in the "Already registrated" section is not case sensitive. </t>
-  </si>
-  <si>
     <t>Verify that user can not log in with incorrect email and correct password</t>
   </si>
   <si>
@@ -312,9 +297,6 @@
     <t>___happy369___</t>
   </si>
   <si>
-    <t>If space characters are entered before or after valid password in the "Password" field in the "Already registrated" section, the filed is coverd with dots as if all entered characters belongs to password. After clicking on "Sign in" button user is signed in.</t>
-  </si>
-  <si>
     <t>Screenshots:</t>
   </si>
   <si>
@@ -327,9 +309,6 @@
     <t xml:space="preserve">   happy369   </t>
   </si>
   <si>
-    <t>Verify thet user can not log in with correct email and incorrect password</t>
-  </si>
-  <si>
     <t>Verify that user can not log in when input data fields are left empty</t>
   </si>
   <si>
@@ -420,9 +399,6 @@
     <t>Verify that address cannot be updated with empty input data filed</t>
   </si>
   <si>
-    <t xml:space="preserve">Clear "Please assign an address title for future reference" field </t>
-  </si>
-  <si>
     <t>BUG</t>
   </si>
   <si>
@@ -435,9 +411,6 @@
     <t xml:space="preserve">      </t>
   </si>
   <si>
-    <t>Comment: 5 space characters</t>
-  </si>
-  <si>
     <t>Verify that address can be added</t>
   </si>
   <si>
@@ -495,45 +468,9 @@
     <t>address1 is required.</t>
   </si>
   <si>
-    <t>Verify that address for further references cannot be updated with invalid input data</t>
-  </si>
-  <si>
-    <t>The address for further references has not been updated. Notification message about error appears.</t>
-  </si>
-  <si>
     <t>There is 1 error</t>
   </si>
   <si>
-    <t>The address for further references has been updated and visible.</t>
-  </si>
-  <si>
-    <t>????</t>
-  </si>
-  <si>
-    <t>33333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Your addresses</t>
-  </si>
-  <si>
-    <t>You must register at least one phone number.</t>
-  </si>
-  <si>
-    <t>This country requires you to chose a State.</t>
-  </si>
-  <si>
-    <t>The Zip/Postal code you've entered is invalid. It must follow this format: 00000</t>
-  </si>
-  <si>
-    <t>address1 is required.</t>
-  </si>
-  <si>
-    <t>city is required.</t>
-  </si>
-  <si>
     <t>The new address is added and visible.</t>
   </si>
   <si>
@@ -555,13 +492,7 @@
     <t>???</t>
   </si>
   <si>
-    <t>369963</t>
-  </si>
-  <si>
     <t xml:space="preserve">          </t>
-  </si>
-  <si>
-    <t xml:space="preserve">         </t>
   </si>
   <si>
     <t>Verify that address can be deleted</t>
@@ -666,10 +597,6 @@
     <t>Dresses</t>
   </si>
   <si>
-    <t>Name Qty Viewed Created Direct Link Delete
-Dresses 0 0 2021-06-13 View</t>
-  </si>
-  <si>
     <t>Verify that item can be added to the wishlist</t>
   </si>
   <si>
@@ -698,6 +625,168 @@
   </si>
   <si>
     <t>Printed Dress</t>
+  </si>
+  <si>
+    <t>Verify that wishlist can be deleted</t>
+  </si>
+  <si>
+    <t>Click on the "X" icon in the wishlist table</t>
+  </si>
+  <si>
+    <t>First Wishlist</t>
+  </si>
+  <si>
+    <t>The wishlist is deleted.</t>
+  </si>
+  <si>
+    <t>Verify that multiple wishlist can be created</t>
+  </si>
+  <si>
+    <t>T-Shirts</t>
+  </si>
+  <si>
+    <t>Verify that item can be added to the specific wishlist</t>
+  </si>
+  <si>
+    <t>The item is added and visible in the second wishlist.</t>
+  </si>
+  <si>
+    <t>Click on the item picture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Click on the "Add to wishlist" </t>
+  </si>
+  <si>
+    <t>The item is added and visible in the first wishlist. There is not a option to add item to specific wishlist different from default.</t>
+  </si>
+  <si>
+    <t>Verify that item can be removed from the wishlist</t>
+  </si>
+  <si>
+    <t>Click on the wishlist name in the "Name" column of the table</t>
+  </si>
+  <si>
+    <t>The item is deleted.</t>
+  </si>
+  <si>
+    <t>Click on the "X" icon next to the item name</t>
+  </si>
+  <si>
+    <t>public bool IsElementDisplayed(IWebDriver driver, By element)
+    {
+        if (driver.FindElements(element).Count &gt; 0)
+        {
+            if (driver.FindElement(element).Displayed)
+                return true;
+            else
+                return false;
+        }
+        else
+        {
+            return false;
+        }
+    }</t>
+  </si>
+  <si>
+    <t>Verify that user can log in with valid email and password</t>
+  </si>
+  <si>
+    <t>User is logged in. My account page is opened.</t>
+  </si>
+  <si>
+    <t>Verify that user can not log in with incorect email and correct password</t>
+  </si>
+  <si>
+    <t>If space characters are entered before or after valid password in the "Password" field in the "Already registrated" section, the filed is covered with dots as if all entered characters belongs to the password. After clicking on "Sign in" button user is signed in.</t>
+  </si>
+  <si>
+    <t>User is not logged in. My account page is not opened. Notification message about error appears.</t>
+  </si>
+  <si>
+    <t>The address can be updated with invalid input data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      (Spaces)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">               </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        (Spaces)</t>
+  </si>
+  <si>
+    <t>The address has been updated and visible. Notification message about error does not appear.</t>
+  </si>
+  <si>
+    <t>Spaces</t>
+  </si>
+  <si>
+    <t>?????</t>
+  </si>
+  <si>
+    <t>If invalid input data are entered in the "Address" and in the "Please assign an address title for future reference" field, and "Save" button is clicked, the address has been updated and visible. Notification message about error does not appear.</t>
+  </si>
+  <si>
+    <t>bilder instancirati u bese tests</t>
+  </si>
+  <si>
+    <t>Click on the "Add a new address" button</t>
+  </si>
+  <si>
+    <t>Actions hover = new Actions(driver);
+WebElement Elem_to_hover = driver.findElementBy(By.id("id"));
+hover.moveToElement(Elem_to_hover);
+hover.build();
+hover.perform();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">              </t>
+  </si>
+  <si>
+    <t>There are 5 errors
+address1 is required.
+city is required.
+You must register at least one phone number.
+This country requires you to chose a State.
+The Zip/Postal code you've entered is invalid. It must follow this format: 00000</t>
+  </si>
+  <si>
+    <t>There are 8 errors
+lastname is invalid.
+firstname is invalid.
+address1 is invalid.
+postcode is invalid.
+city is invalid.
+phone is invalid.
+phone_mobile is invalid.
+The Zip/Postal code you've entered is invalid. It must follow this format: 00000</t>
+  </si>
+  <si>
+    <t>There are 7 errors
+lastname is invalid.
+firstname is invalid.
+address1 is invalid.
+city is invalid.
+phone is invalid.
+phone_mobile is invalid.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">       </t>
+  </si>
+  <si>
+    <t xml:space="preserve">           </t>
+  </si>
+  <si>
+    <t>The new address is not added and visible.</t>
+  </si>
+  <si>
+    <t>The address can be added with invalid input data</t>
+  </si>
+  <si>
+    <t>If invalid input data (spaces) are entered in madatory fileds, and "Save" button is clicked, the address has been added and visible.</t>
   </si>
 </sst>
 </file>
@@ -768,15 +857,15 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF0070C0"/>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -835,12 +924,12 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -865,13 +954,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>427139</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1432979</xdr:colOff>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -915,13 +1004,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>220980</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>123713</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -953,6 +1042,156 @@
         <a:xfrm>
           <a:off x="9448800" y="16390621"/>
           <a:ext cx="6316980" cy="3415552"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>967740</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>27345</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{459092A4-2D9B-4CFA-8541-11CD6DC99FAE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1744980" y="21313140"/>
+          <a:ext cx="5669280" cy="4233585"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>61675</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>175261</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>449581</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>154922</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F171954-E768-4E0C-8A7B-7F1677F46B9B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8001715" y="22532341"/>
+          <a:ext cx="6483906" cy="4003021"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1263790</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B15CD83-BC2F-43DF-8D34-DEA1F67243B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1744980" y="33055560"/>
+          <a:ext cx="5965330" cy="4770120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1311,7 +1550,7 @@
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="8" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>53</v>
@@ -1327,7 +1566,7 @@
       <c r="A4" s="8"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>53</v>
@@ -1341,23 +1580,23 @@
       <c r="A5" s="8"/>
       <c r="B5" s="8"/>
       <c r="C5" s="8" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>53</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>53</v>
@@ -1373,7 +1612,7 @@
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="8" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>57</v>
@@ -1387,7 +1626,7 @@
       <c r="A8" s="8"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>57</v>
@@ -1400,24 +1639,24 @@
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="8"/>
       <c r="B9" s="8"/>
-      <c r="C9" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="D9" s="19" t="s">
+      <c r="C9" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="D9" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="E9" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="F9" s="19" t="s">
-        <v>67</v>
+      <c r="E9" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="8"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>57</v>
@@ -1431,7 +1670,7 @@
       <c r="A11" s="8"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>57</v>
@@ -1443,14 +1682,14 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B12" s="8"/>
       <c r="C12" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" s="8" t="s">
         <v>77</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>79</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="8" t="s">
@@ -1461,10 +1700,10 @@
       <c r="A13" s="8"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E13" s="8"/>
       <c r="F13" s="8" t="s">
@@ -1575,10 +1814,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D35E7DD-21AC-4F9A-97E6-FB28FE6E1A8C}">
-  <dimension ref="A2:G32"/>
+  <dimension ref="A2:I107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1600,7 +1839,7 @@
         <v>42</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>206</v>
+        <v>183</v>
       </c>
       <c r="D3" s="14"/>
     </row>
@@ -1630,7 +1869,7 @@
     <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B7" s="10"/>
       <c r="C7" s="3" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="D7" s="14"/>
     </row>
@@ -1653,22 +1892,22 @@
     <row r="10" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B10" s="2"/>
       <c r="C10" s="3" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="D10" s="9"/>
     </row>
     <row r="11" spans="1:5" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C11" s="14" t="s">
-        <v>205</v>
+        <v>182</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>208</v>
+        <v>185</v>
       </c>
       <c r="E11"/>
     </row>
     <row r="12" spans="1:5" s="2" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
       <c r="C12" s="3" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="D12" s="9"/>
     </row>
@@ -1684,17 +1923,17 @@
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="16" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="52.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2"/>
       <c r="B15" s="12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C15" s="2"/>
-      <c r="D15" s="21" t="s">
-        <v>209</v>
+      <c r="D15" s="19" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -1702,12 +1941,12 @@
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
     </row>
-    <row r="18" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
         <v>41</v>
       </c>
@@ -1717,19 +1956,19 @@
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>42</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>210</v>
+        <v>186</v>
       </c>
       <c r="D19" s="14"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B20" s="10" t="s">
         <v>43</v>
       </c>
@@ -1741,7 +1980,7 @@
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="409.6" x14ac:dyDescent="0.3">
       <c r="B21" s="10"/>
       <c r="C21" s="3" t="s">
         <v>50</v>
@@ -1750,8 +1989,11 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
-    </row>
-    <row r="22" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="I21" s="6" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="46.8" x14ac:dyDescent="0.3">
       <c r="B22" s="10"/>
       <c r="C22" s="3" t="s">
         <v>45</v>
@@ -1761,17 +2003,17 @@
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B23" s="10"/>
       <c r="C23" s="3" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="D23" s="14"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B24" s="10"/>
       <c r="C24" s="3"/>
       <c r="D24" s="14"/>
@@ -1779,7 +2021,7 @@
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B25" s="15" t="s">
         <v>46</v>
       </c>
@@ -1793,65 +2035,698 @@
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B26" s="2"/>
       <c r="C26" s="14" t="s">
-        <v>211</v>
+        <v>187</v>
       </c>
       <c r="D26" s="9"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
     </row>
-    <row r="27" spans="1:7" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C27" s="14" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" s="2" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="C28" s="3" t="s">
-        <v>212</v>
+        <v>195</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C28" s="14" t="s">
+        <v>204</v>
       </c>
       <c r="D28" s="9"/>
     </row>
-    <row r="29" spans="1:7" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C29" s="14" t="s">
-        <v>213</v>
+    <row r="29" spans="1:9" s="2" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="C29" s="3" t="s">
+        <v>205</v>
       </c>
       <c r="D29" s="9"/>
     </row>
-    <row r="30" spans="1:7" s="2" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="C30" s="3" t="s">
-        <v>214</v>
+    <row r="30" spans="1:9" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C30" s="14" t="s">
+        <v>189</v>
       </c>
       <c r="D30" s="9"/>
     </row>
-    <row r="31" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B31" s="12" t="s">
+    <row r="31" spans="1:9" s="2" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="C31" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D31" s="9"/>
+    </row>
+    <row r="32" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B32" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="16" t="s">
-        <v>215</v>
-      </c>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-    </row>
-    <row r="32" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B32" s="12" t="s">
-        <v>62</v>
-      </c>
       <c r="C32" s="2"/>
-      <c r="D32" s="21" t="s">
-        <v>218</v>
+      <c r="D32" s="16" t="s">
+        <v>191</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
+    </row>
+    <row r="33" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B33" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+    </row>
+    <row r="34" spans="2:7" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B34" s="12"/>
+      <c r="D34" s="19"/>
+    </row>
+    <row r="35" spans="2:7" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B35" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+    </row>
+    <row r="36" spans="2:7" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B36" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="D36" s="14"/>
+    </row>
+    <row r="37" spans="2:7" s="2" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B37" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D37" s="14"/>
+    </row>
+    <row r="38" spans="2:7" s="2" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B38" s="10"/>
+      <c r="C38" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D38" s="14"/>
+    </row>
+    <row r="39" spans="2:7" s="2" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="B39" s="10"/>
+      <c r="C39" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D39" s="14"/>
+    </row>
+    <row r="40" spans="2:7" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B40" s="10"/>
+      <c r="C40" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D40" s="14"/>
+    </row>
+    <row r="41" spans="2:7" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B41" s="10"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="14"/>
+    </row>
+    <row r="42" spans="2:7" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B42" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D42" s="15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C43" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="D43" s="9"/>
+    </row>
+    <row r="44" spans="2:7" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C44" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C45" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="D45" s="9"/>
+    </row>
+    <row r="46" spans="2:7" s="2" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="C46" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="D46" s="9"/>
+    </row>
+    <row r="47" spans="2:7" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C47" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="D47" s="9"/>
+    </row>
+    <row r="48" spans="2:7" s="2" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="C48" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D48" s="9"/>
+    </row>
+    <row r="49" spans="2:7" s="2" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="C49" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D49" s="9"/>
+    </row>
+    <row r="50" spans="2:7" s="2" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="C50" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="D50" s="9"/>
+    </row>
+    <row r="51" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B51" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51" s="2"/>
+      <c r="D51" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+    </row>
+    <row r="52" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B52" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C52" s="2"/>
+      <c r="D52" s="19"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+    </row>
+    <row r="53" spans="2:7" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B53" s="12"/>
+      <c r="D53" s="19"/>
+    </row>
+    <row r="54" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B54" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="D54" s="14"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+    </row>
+    <row r="55" spans="2:7" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B55" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D55" s="14"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+    </row>
+    <row r="56" spans="2:7" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B56" s="10"/>
+      <c r="C56" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D56" s="14"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+    </row>
+    <row r="57" spans="2:7" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="B57" s="10"/>
+      <c r="C57" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D57" s="14"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+    </row>
+    <row r="58" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B58" s="10"/>
+      <c r="C58" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D58" s="14"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+    </row>
+    <row r="59" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B59" s="10"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+    </row>
+    <row r="60" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B60" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D60" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+    </row>
+    <row r="61" spans="2:7" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B61" s="2"/>
+      <c r="C61" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D61" s="9"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+    </row>
+    <row r="62" spans="2:7" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B62" s="2"/>
+      <c r="C62" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="D62" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+    </row>
+    <row r="63" spans="2:7" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="B63" s="2"/>
+      <c r="C63" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D63" s="9"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+    </row>
+    <row r="64" spans="2:7" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C64" s="3"/>
+      <c r="D64" s="9"/>
+    </row>
+    <row r="65" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B65" s="2"/>
+      <c r="C65" s="14"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+    </row>
+    <row r="66" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B66" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C66" s="2"/>
+      <c r="D66" s="16" t="s">
+        <v>199</v>
+      </c>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2"/>
+    </row>
+    <row r="67" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B67" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C67" s="2"/>
+      <c r="D67" s="19"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2"/>
+    </row>
+    <row r="69" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B69" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C69" s="14"/>
+      <c r="D69" s="14"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+    </row>
+    <row r="70" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B70" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="D70" s="14"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
+    </row>
+    <row r="71" spans="2:7" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B71" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D71" s="14"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2"/>
+    </row>
+    <row r="72" spans="2:7" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B72" s="10"/>
+      <c r="C72" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D72" s="14"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
+    </row>
+    <row r="73" spans="2:7" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="B73" s="10"/>
+      <c r="C73" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D73" s="14"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+    </row>
+    <row r="74" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B74" s="10"/>
+      <c r="C74" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D74" s="14"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+    </row>
+    <row r="75" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B75" s="10"/>
+      <c r="C75" s="3"/>
+      <c r="D75" s="14"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
+    </row>
+    <row r="76" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B76" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C76" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D76" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
+    </row>
+    <row r="77" spans="2:7" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B77" s="2"/>
+      <c r="C77" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D77" s="9"/>
+      <c r="E77" s="2"/>
+      <c r="F77" s="2"/>
+    </row>
+    <row r="78" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B78" s="2"/>
+      <c r="C78" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="D78" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+    </row>
+    <row r="79" spans="2:7" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B79" s="2"/>
+      <c r="C79" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D79" s="9"/>
+      <c r="E79" s="2"/>
+      <c r="F79" s="2"/>
+    </row>
+    <row r="80" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B80" s="2"/>
+      <c r="C80" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="D80" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="E80" s="2"/>
+      <c r="F80" s="2"/>
+    </row>
+    <row r="81" spans="2:6" s="2" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="C81" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D81" s="9"/>
+    </row>
+    <row r="82" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B82" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C82" s="2"/>
+      <c r="D82" s="16" t="s">
+        <v>184</v>
+      </c>
+      <c r="E82" s="2"/>
+      <c r="F82" s="2"/>
+    </row>
+    <row r="83" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B83" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C83" s="2"/>
+      <c r="D83" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="E83" s="2"/>
+      <c r="F83" s="2"/>
+    </row>
+    <row r="85" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B85" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C85" s="14"/>
+      <c r="D85" s="14"/>
+      <c r="E85" s="2"/>
+    </row>
+    <row r="86" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B86" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="D86" s="14"/>
+      <c r="E86" s="2"/>
+    </row>
+    <row r="87" spans="2:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B87" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D87" s="14"/>
+      <c r="E87" s="2"/>
+    </row>
+    <row r="88" spans="2:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B88" s="10"/>
+      <c r="C88" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D88" s="14"/>
+      <c r="E88" s="2"/>
+    </row>
+    <row r="89" spans="2:6" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="B89" s="10"/>
+      <c r="C89" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D89" s="14"/>
+      <c r="E89" s="2"/>
+    </row>
+    <row r="90" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B90" s="10"/>
+      <c r="C90" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="D90" s="14"/>
+      <c r="E90" s="2"/>
+    </row>
+    <row r="91" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B91" s="10"/>
+      <c r="C91" s="3"/>
+      <c r="D91" s="14"/>
+      <c r="E91" s="2"/>
+    </row>
+    <row r="92" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B92" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C92" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D92" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E92" s="2"/>
+    </row>
+    <row r="93" spans="2:6" s="2" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B93" s="15"/>
+      <c r="C93" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D93" s="15"/>
+    </row>
+    <row r="94" spans="2:6" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B94" s="15"/>
+      <c r="C94" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="D94" s="9" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="95" spans="2:6" s="2" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B95" s="15"/>
+      <c r="C95" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D95" s="15"/>
+    </row>
+    <row r="96" spans="2:6" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B96" s="15"/>
+      <c r="C96" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="D96" s="9" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="97" spans="2:5" s="2" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B97" s="15"/>
+      <c r="C97" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D97" s="15"/>
+    </row>
+    <row r="98" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B98" s="2"/>
+      <c r="C98" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="D98" s="9"/>
+      <c r="E98" s="2"/>
+    </row>
+    <row r="99" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B99" s="2"/>
+      <c r="C99" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="D99" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="E99" s="2"/>
+    </row>
+    <row r="100" spans="2:5" s="2" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="C100" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="D100" s="9"/>
+    </row>
+    <row r="101" spans="2:5" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B101" s="2"/>
+      <c r="C101" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D101" s="9"/>
+      <c r="E101" s="2"/>
+    </row>
+    <row r="102" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B102" s="2"/>
+      <c r="C102" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="D102" s="9"/>
+      <c r="E102" s="2"/>
+    </row>
+    <row r="103" spans="2:5" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B103" s="2"/>
+      <c r="C103" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D103" s="9"/>
+      <c r="E103" s="2"/>
+    </row>
+    <row r="104" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B104" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C104" s="2"/>
+      <c r="D104" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="E104" s="2"/>
+    </row>
+    <row r="105" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B105" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C105" s="2"/>
+      <c r="D105" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="E105" s="2"/>
+    </row>
+    <row r="106" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B106" t="s">
+        <v>64</v>
+      </c>
+      <c r="D106" s="16" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="107" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="D107" t="s">
+        <v>121</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2163,7 +3038,7 @@
         <v>42</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="C33" s="14"/>
     </row>
@@ -2227,7 +3102,7 @@
         <v>4</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
@@ -2249,21 +3124,21 @@
         <v>51</v>
       </c>
       <c r="C43" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C44" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
@@ -2280,7 +3155,7 @@
         <v>42</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C48" s="14"/>
     </row>
@@ -2327,10 +3202,10 @@
         <v>47</v>
       </c>
       <c r="C54" s="15" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D54" s="15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
@@ -2341,10 +3216,10 @@
         <v>49</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="D55" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
@@ -2367,16 +3242,16 @@
       </c>
       <c r="B58" s="2"/>
       <c r="C58" s="2" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" s="2" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -2387,54 +3262,64 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C53B683D-DEA1-4488-A7DE-502F2C16ECE7}">
-  <dimension ref="A1:I80"/>
+  <dimension ref="A1:I191"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D79" sqref="D79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="2"/>
     <col min="2" max="2" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="71.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="60.109375" customWidth="1"/>
     <col min="4" max="4" width="36" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="25.5546875" customWidth="1"/>
     <col min="6" max="6" width="25.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="14"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="14"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
     </row>
-    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="14"/>
       <c r="B2" s="10" t="s">
         <v>41</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="14"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="14"/>
       <c r="B3" s="10" t="s">
         <v>42</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>58</v>
+        <v>212</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="14"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
     </row>
-    <row r="4" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="14"/>
       <c r="B4" s="10" t="s">
         <v>43</v>
       </c>
@@ -2443,48 +3328,63 @@
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="14"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="14"/>
       <c r="B5" s="10"/>
       <c r="C5" s="3" t="s">
         <v>50</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="14"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
     </row>
-    <row r="6" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="14"/>
       <c r="B6" s="10"/>
       <c r="C6" s="3" t="s">
         <v>45</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="14"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="14"/>
       <c r="B7" s="10"/>
       <c r="C7" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="14"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="14"/>
       <c r="B8" s="10"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="14"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
     </row>
-    <row r="9" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="14"/>
       <c r="B9" s="10" t="s">
         <v>46</v>
       </c>
@@ -2495,15 +3395,17 @@
         <v>48</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>103</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="G9" s="14"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="2:9" ht="109.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="73.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="14"/>
       <c r="B10" s="3">
         <v>1</v>
       </c>
@@ -2514,15 +3416,17 @@
         <v>4</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>104</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="G10" s="14"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
     </row>
-    <row r="11" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="14"/>
       <c r="B11" s="3">
         <v>2</v>
       </c>
@@ -2535,10 +3439,13 @@
       <c r="E11" s="5" t="s">
         <v>5</v>
       </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="14"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
     </row>
-    <row r="12" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="14"/>
       <c r="B12" s="3">
         <v>3</v>
       </c>
@@ -2547,38 +3454,45 @@
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="14"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
     </row>
-    <row r="13" spans="2:9" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="14"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="14"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
     </row>
-    <row r="14" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="14"/>
       <c r="B14" s="10" t="s">
         <v>51</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>59</v>
+        <v>213</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
     </row>
-    <row r="15" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="14"/>
       <c r="B15" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3" t="s">
@@ -2587,22 +3501,29 @@
       <c r="E15" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-    </row>
-    <row r="16" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="14"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
-    </row>
-    <row r="17" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F16" s="3"/>
+      <c r="G16" s="14"/>
+    </row>
+    <row r="17" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="14"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
-    </row>
-    <row r="18" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F17" s="3"/>
+      <c r="G17" s="14"/>
+    </row>
+    <row r="18" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="14"/>
       <c r="B18" s="10" t="s">
         <v>41</v>
       </c>
@@ -2611,18 +3532,24 @@
       </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
-    </row>
-    <row r="19" spans="2:7" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="F18" s="3"/>
+      <c r="G18" s="14"/>
+    </row>
+    <row r="19" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="14"/>
       <c r="B19" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>60</v>
+      <c r="C19" s="10" t="s">
+        <v>214</v>
       </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
-    </row>
-    <row r="20" spans="2:7" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="F19" s="3"/>
+      <c r="G19" s="14"/>
+    </row>
+    <row r="20" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="14"/>
       <c r="B20" s="10" t="s">
         <v>43</v>
       </c>
@@ -2631,38 +3558,53 @@
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
-    </row>
-    <row r="21" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F20" s="3"/>
+      <c r="G20" s="14"/>
+    </row>
+    <row r="21" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="14"/>
       <c r="B21" s="10"/>
       <c r="C21" s="3" t="s">
         <v>50</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
-    </row>
-    <row r="22" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F21" s="3"/>
+      <c r="G21" s="14"/>
+    </row>
+    <row r="22" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="14"/>
       <c r="B22" s="10"/>
       <c r="C22" s="3" t="s">
         <v>45</v>
       </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
-    </row>
-    <row r="23" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F22" s="3"/>
+      <c r="G22" s="14"/>
+    </row>
+    <row r="23" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="14"/>
       <c r="B23" s="10"/>
       <c r="C23" s="3" t="s">
         <v>3</v>
       </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
-    </row>
-    <row r="24" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F23" s="3"/>
+      <c r="G23" s="14"/>
+    </row>
+    <row r="24" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="14"/>
       <c r="B24" s="10"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
-    </row>
-    <row r="25" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F24" s="3"/>
+      <c r="G24" s="14"/>
+    </row>
+    <row r="25" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="14"/>
       <c r="B25" s="10" t="s">
         <v>46</v>
       </c>
@@ -2670,21 +3612,33 @@
         <v>47</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F25" s="3"/>
+      <c r="G25" s="14"/>
+    </row>
+    <row r="26" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A26" s="14"/>
       <c r="B26" s="3">
         <v>1</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="27" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E26" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F26" s="3"/>
+      <c r="G26" s="14"/>
+    </row>
+    <row r="27" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A27" s="14"/>
       <c r="B27" s="3">
         <v>2</v>
       </c>
@@ -2694,8 +3648,14 @@
       <c r="D27" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="28" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E27" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F27" s="3"/>
+      <c r="G27" s="14"/>
+    </row>
+    <row r="28" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="14"/>
       <c r="B28" s="3">
         <v>3</v>
       </c>
@@ -2703,839 +3663,2052 @@
         <v>3</v>
       </c>
       <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
       <c r="F28" s="3"/>
       <c r="G28" s="3"/>
     </row>
-    <row r="29" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="14"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
       <c r="F29" s="3"/>
       <c r="G29" s="3"/>
     </row>
-    <row r="30" spans="2:7" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A30" s="14"/>
       <c r="B30" s="10" t="s">
         <v>51</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="F30" s="3"/>
       <c r="G30" s="3"/>
     </row>
-    <row r="31" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="14"/>
       <c r="B31" s="10" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F31"/>
-    </row>
-    <row r="32" spans="2:7" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E31" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" s="3"/>
+      <c r="G31" s="14"/>
+    </row>
+    <row r="32" spans="1:7" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="14"/>
       <c r="B32" s="10"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
     </row>
-    <row r="33" spans="2:7" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B33" s="10" t="s">
-        <v>66</v>
-      </c>
+    <row r="33" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A33" s="14"/>
+      <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
       <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-    </row>
-    <row r="34" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
+      <c r="G33" s="14"/>
+    </row>
+    <row r="34" spans="1:7" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A34" s="14"/>
+      <c r="B34" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34" s="3">
+        <v>1</v>
+      </c>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
-      <c r="F34"/>
-    </row>
-    <row r="35" spans="2:7" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F34" s="3"/>
+      <c r="G34" s="14"/>
+    </row>
+    <row r="35" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A35" s="14"/>
       <c r="B35" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C35" s="3">
-        <v>1</v>
+        <v>42</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>84</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
-    </row>
-    <row r="36" spans="2:7" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="F35" s="3"/>
+      <c r="G35" s="14"/>
+    </row>
+    <row r="36" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A36" s="14"/>
       <c r="B36" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>97</v>
+        <v>43</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
-      <c r="F36"/>
-    </row>
-    <row r="37" spans="2:7" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B37" s="10" t="s">
-        <v>43</v>
-      </c>
+      <c r="F36" s="3"/>
+      <c r="G36" s="14"/>
+    </row>
+    <row r="37" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A37" s="14"/>
+      <c r="B37" s="10"/>
       <c r="C37" s="3" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
-      <c r="F37"/>
-    </row>
-    <row r="38" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F37" s="3"/>
+      <c r="G37" s="14"/>
+    </row>
+    <row r="38" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A38" s="14"/>
       <c r="B38" s="10"/>
       <c r="C38" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
-      <c r="F38"/>
-    </row>
-    <row r="39" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F38" s="3"/>
+      <c r="G38" s="14"/>
+    </row>
+    <row r="39" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A39" s="14"/>
       <c r="B39" s="10"/>
       <c r="C39" s="3" t="s">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
-      <c r="F39"/>
-    </row>
-    <row r="40" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F39" s="3"/>
+      <c r="G39" s="14"/>
+    </row>
+    <row r="40" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A40" s="14"/>
       <c r="B40" s="10"/>
-      <c r="C40" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
-      <c r="F40"/>
-    </row>
-    <row r="41" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B41" s="10"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41"/>
-    </row>
-    <row r="42" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B42" s="10" t="s">
+      <c r="F40" s="3"/>
+      <c r="G40" s="14"/>
+    </row>
+    <row r="41" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A41" s="14"/>
+      <c r="B41" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C42" s="10" t="s">
+      <c r="C41" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D42" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="E42" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="F42" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="G42" s="10" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="43" spans="2:7" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="D41" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F41" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="G41" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A42" s="14"/>
+      <c r="B42" s="3">
+        <v>1</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A43" s="14"/>
       <c r="B43" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G43" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A44" s="14"/>
       <c r="B44" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="F44" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="G44" s="5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="45" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B45" s="3">
         <v>3</v>
       </c>
-      <c r="C45" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="14"/>
+    </row>
+    <row r="45" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A45" s="14"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
-      <c r="F45"/>
-    </row>
-    <row r="46" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B46" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="14"/>
+    </row>
+    <row r="46" spans="1:7" ht="78" x14ac:dyDescent="0.3">
+      <c r="A46" s="14"/>
+      <c r="B46" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-    </row>
-    <row r="47" spans="2:7" ht="78" x14ac:dyDescent="0.3">
+      <c r="D46" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A47" s="14"/>
       <c r="B47" s="10" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="3" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>61</v>
+        <v>10</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="48" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B48" s="10" t="s">
-        <v>62</v>
-      </c>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A48" s="14"/>
+      <c r="B48" s="10"/>
       <c r="C48" s="3"/>
-      <c r="D48" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="49" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B49" s="10"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="14"/>
+    </row>
+    <row r="49" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A49" s="14"/>
+      <c r="B49" s="10" t="s">
+        <v>64</v>
+      </c>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
-    </row>
-    <row r="50" spans="2:6" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B50" s="10" t="s">
-        <v>66</v>
-      </c>
+      <c r="E49" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F49" s="3"/>
+      <c r="G49" s="14"/>
+    </row>
+    <row r="50" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A50" s="14"/>
+      <c r="B50" s="3"/>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
-      <c r="E50" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="51" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E50" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="F50" s="3"/>
+      <c r="G50" s="14"/>
+    </row>
+    <row r="51" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A51" s="14"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
-      <c r="E51" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="52" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="14"/>
+    </row>
+    <row r="52" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A52" s="14"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
-    </row>
-    <row r="53" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B53" s="3"/>
-      <c r="C53" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="14"/>
+    </row>
+    <row r="53" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A53" s="14"/>
+      <c r="B53" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C53" s="3">
+        <v>1</v>
+      </c>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
-    </row>
-    <row r="54" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F53" s="3"/>
+      <c r="G53" s="14"/>
+    </row>
+    <row r="54" spans="1:7" s="2" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A54" s="14"/>
       <c r="B54" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C54" s="3">
-        <v>1</v>
+        <v>42</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>91</v>
       </c>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
-    </row>
-    <row r="55" spans="2:6" s="2" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="F54" s="3"/>
+      <c r="G54" s="14"/>
+    </row>
+    <row r="55" spans="1:7" s="2" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A55" s="14"/>
       <c r="B55" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C55" s="10" t="s">
-        <v>98</v>
+        <v>43</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
-    </row>
-    <row r="56" spans="2:6" s="2" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B56" s="10" t="s">
-        <v>43</v>
-      </c>
+      <c r="F55" s="3"/>
+      <c r="G55" s="14"/>
+    </row>
+    <row r="56" spans="1:7" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A56" s="14"/>
+      <c r="B56" s="10"/>
       <c r="C56" s="3" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
-    </row>
-    <row r="57" spans="2:6" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F56" s="3"/>
+      <c r="G56" s="14"/>
+    </row>
+    <row r="57" spans="1:7" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A57" s="14"/>
       <c r="B57" s="10"/>
       <c r="C57" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D57" s="3"/>
       <c r="E57" s="3"/>
-    </row>
-    <row r="58" spans="2:6" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F57" s="3"/>
+      <c r="G57" s="14"/>
+    </row>
+    <row r="58" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A58" s="14"/>
       <c r="B58" s="10"/>
       <c r="C58" s="3" t="s">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
-    </row>
-    <row r="59" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F58" s="3"/>
+      <c r="G58" s="14"/>
+    </row>
+    <row r="59" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A59" s="14"/>
       <c r="B59" s="10"/>
-      <c r="C59" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="C59" s="3"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
-    </row>
-    <row r="60" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B60" s="10"/>
-      <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
-      <c r="E60" s="3"/>
-    </row>
-    <row r="61" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B61" s="10" t="s">
+      <c r="F59" s="3"/>
+      <c r="G59" s="14"/>
+    </row>
+    <row r="60" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A60" s="14"/>
+      <c r="B60" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C61" s="10" t="s">
+      <c r="C60" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D61" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="E61" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="F61" s="10" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="62" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D60" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="E60" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F60" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="G60" s="14"/>
+    </row>
+    <row r="61" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A61" s="14"/>
+      <c r="B61" s="3">
+        <v>1</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F61" s="3"/>
+      <c r="G61" s="14"/>
+    </row>
+    <row r="62" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A62" s="14"/>
       <c r="B62" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D62" s="4"/>
-      <c r="E62" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E62" s="5"/>
+      <c r="F62" s="3"/>
+      <c r="G62" s="14"/>
+    </row>
+    <row r="63" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A63" s="14"/>
       <c r="B63" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D63" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E63" s="5"/>
-    </row>
-    <row r="64" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B64" s="3">
         <v>3</v>
       </c>
-      <c r="C64" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="3"/>
+      <c r="G63" s="14"/>
+    </row>
+    <row r="64" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A64" s="14"/>
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
-    </row>
-    <row r="65" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B65" s="3"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="14"/>
+    </row>
+    <row r="65" spans="1:7" ht="78" x14ac:dyDescent="0.3">
+      <c r="A65" s="14"/>
+      <c r="B65" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="C65" s="3"/>
-      <c r="D65" s="3"/>
-      <c r="E65" s="3"/>
-    </row>
-    <row r="66" spans="2:6" ht="78" x14ac:dyDescent="0.3">
+      <c r="D65" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G65" s="14"/>
+    </row>
+    <row r="66" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A66" s="14"/>
       <c r="B66" s="10" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="C66" s="3"/>
       <c r="D66" s="3" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="67" spans="2:6" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B67" s="10" t="s">
-        <v>62</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="G66" s="14"/>
+    </row>
+    <row r="67" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A67" s="14"/>
+      <c r="B67" s="3"/>
       <c r="C67" s="3"/>
-      <c r="D67" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E67" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="F67" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="68" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B68" s="3"/>
-      <c r="C68" s="3"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="3"/>
+      <c r="G67" s="14"/>
+    </row>
+    <row r="68" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A68" s="14"/>
+      <c r="B68" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C68" s="3">
+        <v>1</v>
+      </c>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
-    </row>
-    <row r="69" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F68" s="3"/>
+      <c r="G68" s="14"/>
+    </row>
+    <row r="69" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A69" s="14"/>
       <c r="B69" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C69" s="3">
-        <v>1</v>
+        <v>42</v>
+      </c>
+      <c r="C69" s="10" t="s">
+        <v>71</v>
       </c>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
-      <c r="F69"/>
-    </row>
-    <row r="70" spans="2:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="F69" s="3"/>
+      <c r="G69" s="14"/>
+    </row>
+    <row r="70" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A70" s="14"/>
       <c r="B70" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C70" s="10" t="s">
-        <v>73</v>
+        <v>43</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
-      <c r="F70"/>
-    </row>
-    <row r="71" spans="2:6" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B71" s="10" t="s">
-        <v>43</v>
-      </c>
+      <c r="F70" s="3"/>
+      <c r="G70" s="14"/>
+    </row>
+    <row r="71" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A71" s="14"/>
+      <c r="B71" s="10"/>
       <c r="C71" s="3" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
-      <c r="F71"/>
-    </row>
-    <row r="72" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F71" s="3"/>
+      <c r="G71" s="14"/>
+    </row>
+    <row r="72" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A72" s="14"/>
       <c r="B72" s="10"/>
       <c r="C72" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
-    </row>
-    <row r="73" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F72" s="3"/>
+      <c r="G72" s="14"/>
+    </row>
+    <row r="73" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A73" s="14"/>
       <c r="B73" s="10"/>
       <c r="C73" s="3" t="s">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
-    </row>
-    <row r="74" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F73" s="3"/>
+      <c r="G73" s="14"/>
+    </row>
+    <row r="74" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A74" s="14"/>
       <c r="B74" s="10"/>
-      <c r="C74" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="C74" s="3"/>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
-    </row>
-    <row r="75" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B75" s="10"/>
-      <c r="C75" s="3"/>
+      <c r="F74" s="3"/>
+      <c r="G74" s="14"/>
+    </row>
+    <row r="75" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A75" s="14"/>
+      <c r="B75" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C75" s="10" t="s">
+        <v>47</v>
+      </c>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
-    </row>
-    <row r="76" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B76" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C76" s="10" t="s">
-        <v>47</v>
+      <c r="F75" s="3"/>
+      <c r="G75" s="14"/>
+    </row>
+    <row r="76" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A76" s="14"/>
+      <c r="B76" s="3">
+        <v>1</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
-      <c r="F76"/>
-    </row>
-    <row r="77" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B77" s="3">
-        <v>1</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>74</v>
-      </c>
+      <c r="F76" s="3"/>
+      <c r="G76" s="14"/>
+    </row>
+    <row r="77" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A77" s="14"/>
+      <c r="B77" s="3"/>
+      <c r="C77" s="3"/>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
-    </row>
-    <row r="78" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B78" s="3"/>
+      <c r="F77" s="3"/>
+      <c r="G77" s="14"/>
+    </row>
+    <row r="78" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A78" s="14"/>
+      <c r="B78" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="C78" s="3"/>
-      <c r="D78" s="3"/>
+      <c r="D78" s="3" t="s">
+        <v>74</v>
+      </c>
       <c r="E78" s="3"/>
-    </row>
-    <row r="79" spans="2:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="F78" s="3"/>
+      <c r="G78" s="14"/>
+    </row>
+    <row r="79" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A79" s="14"/>
       <c r="B79" s="10" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="C79" s="3"/>
       <c r="D79" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E79" s="3"/>
-    </row>
-    <row r="80" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B80" s="10" t="s">
-        <v>62</v>
-      </c>
+      <c r="F79" s="3"/>
+      <c r="G79" s="14"/>
+    </row>
+    <row r="80" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A80" s="14"/>
+      <c r="B80" s="3"/>
       <c r="C80" s="3"/>
-      <c r="D80" s="3" t="s">
-        <v>75</v>
-      </c>
+      <c r="D80" s="3"/>
       <c r="E80" s="3"/>
+      <c r="F80" s="3"/>
+      <c r="G80" s="14"/>
+    </row>
+    <row r="81" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A81" s="14"/>
+      <c r="B81" s="3"/>
+      <c r="C81" s="3"/>
+      <c r="D81" s="3"/>
+      <c r="E81" s="3"/>
+      <c r="F81" s="3"/>
+      <c r="G81" s="14"/>
+    </row>
+    <row r="82" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A82" s="14"/>
+      <c r="B82" s="3"/>
+      <c r="C82" s="3"/>
+      <c r="D82" s="3"/>
+      <c r="E82" s="3"/>
+      <c r="F82" s="3"/>
+      <c r="G82" s="14"/>
+    </row>
+    <row r="83" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A83" s="14"/>
+      <c r="B83" s="14"/>
+      <c r="C83" s="14"/>
+      <c r="D83" s="14"/>
+      <c r="E83" s="14"/>
+      <c r="F83" s="14"/>
+      <c r="G83" s="14"/>
+    </row>
+    <row r="84" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A84" s="14"/>
+      <c r="B84" s="14"/>
+      <c r="C84" s="14"/>
+      <c r="D84" s="14"/>
+      <c r="E84" s="14"/>
+      <c r="F84" s="14"/>
+      <c r="G84" s="14"/>
+    </row>
+    <row r="85" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A85" s="14"/>
+      <c r="B85" s="14"/>
+      <c r="C85" s="14"/>
+      <c r="D85" s="14"/>
+      <c r="E85" s="14"/>
+      <c r="F85" s="14"/>
+      <c r="G85" s="14"/>
+    </row>
+    <row r="86" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A86" s="14"/>
+      <c r="B86" s="14"/>
+      <c r="C86" s="14"/>
+      <c r="D86" s="14"/>
+      <c r="E86" s="14"/>
+      <c r="F86" s="14"/>
+      <c r="G86" s="14"/>
+    </row>
+    <row r="87" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A87" s="14"/>
+      <c r="B87" s="14"/>
+      <c r="C87" s="14"/>
+      <c r="D87" s="14"/>
+      <c r="E87" s="14"/>
+      <c r="F87" s="14"/>
+      <c r="G87" s="14"/>
+    </row>
+    <row r="88" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A88" s="14"/>
+      <c r="B88" s="14"/>
+      <c r="C88" s="14"/>
+      <c r="D88" s="14"/>
+      <c r="E88" s="14"/>
+      <c r="F88" s="14"/>
+      <c r="G88" s="14"/>
+    </row>
+    <row r="89" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A89" s="14"/>
+      <c r="B89" s="14"/>
+      <c r="C89" s="14"/>
+      <c r="D89" s="14"/>
+      <c r="E89" s="14"/>
+      <c r="F89" s="14"/>
+      <c r="G89" s="14"/>
+    </row>
+    <row r="90" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A90" s="14"/>
+      <c r="B90" s="14"/>
+      <c r="C90" s="14"/>
+      <c r="D90" s="14"/>
+      <c r="E90" s="14"/>
+      <c r="F90" s="14"/>
+      <c r="G90" s="14"/>
+    </row>
+    <row r="91" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A91" s="14"/>
+      <c r="B91" s="14"/>
+      <c r="C91" s="14"/>
+      <c r="D91" s="14"/>
+      <c r="E91" s="14"/>
+      <c r="F91" s="14"/>
+      <c r="G91" s="14"/>
+    </row>
+    <row r="92" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A92" s="14"/>
+      <c r="B92" s="14"/>
+      <c r="C92" s="14"/>
+      <c r="D92" s="14"/>
+      <c r="E92" s="14"/>
+      <c r="F92" s="14"/>
+      <c r="G92" s="14"/>
+    </row>
+    <row r="93" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A93" s="14"/>
+      <c r="B93" s="14"/>
+      <c r="C93" s="14"/>
+      <c r="D93" s="14"/>
+      <c r="E93" s="14"/>
+      <c r="F93" s="14"/>
+      <c r="G93" s="14"/>
+    </row>
+    <row r="94" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A94" s="14"/>
+      <c r="B94" s="14"/>
+      <c r="C94" s="14"/>
+      <c r="D94" s="14"/>
+      <c r="E94" s="14"/>
+      <c r="F94" s="14"/>
+      <c r="G94" s="14"/>
+    </row>
+    <row r="95" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A95" s="14"/>
+      <c r="B95" s="14"/>
+      <c r="C95" s="14"/>
+      <c r="D95" s="14"/>
+      <c r="E95" s="14"/>
+      <c r="F95" s="14"/>
+      <c r="G95" s="14"/>
+    </row>
+    <row r="96" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A96" s="14"/>
+      <c r="B96" s="14"/>
+      <c r="C96" s="14"/>
+      <c r="D96" s="14"/>
+      <c r="E96" s="14"/>
+      <c r="F96" s="14"/>
+      <c r="G96" s="14"/>
+    </row>
+    <row r="97" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A97" s="14"/>
+      <c r="B97" s="14"/>
+      <c r="C97" s="14"/>
+      <c r="D97" s="14"/>
+      <c r="E97" s="14"/>
+      <c r="F97" s="14"/>
+      <c r="G97" s="14"/>
+    </row>
+    <row r="98" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A98" s="14"/>
+      <c r="B98" s="14"/>
+      <c r="C98" s="14"/>
+      <c r="D98" s="14"/>
+      <c r="E98" s="14"/>
+      <c r="F98" s="14"/>
+      <c r="G98" s="14"/>
+    </row>
+    <row r="99" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A99" s="14"/>
+      <c r="B99" s="14"/>
+      <c r="C99" s="14"/>
+      <c r="D99" s="14"/>
+      <c r="E99" s="14"/>
+      <c r="F99" s="14"/>
+      <c r="G99" s="14"/>
+    </row>
+    <row r="100" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A100" s="14"/>
+      <c r="B100" s="14"/>
+      <c r="C100" s="14"/>
+      <c r="D100" s="14"/>
+      <c r="E100" s="14"/>
+      <c r="F100" s="14"/>
+      <c r="G100" s="14"/>
+    </row>
+    <row r="101" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A101" s="14"/>
+      <c r="B101" s="14"/>
+      <c r="C101" s="14"/>
+      <c r="D101" s="14"/>
+      <c r="E101" s="14"/>
+      <c r="F101" s="14"/>
+      <c r="G101" s="14"/>
+    </row>
+    <row r="102" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A102" s="14"/>
+      <c r="B102" s="14"/>
+      <c r="C102" s="14"/>
+      <c r="D102" s="14"/>
+      <c r="E102" s="14"/>
+      <c r="F102" s="14"/>
+      <c r="G102" s="14"/>
+    </row>
+    <row r="103" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A103" s="14"/>
+      <c r="B103" s="14"/>
+      <c r="C103" s="14"/>
+      <c r="D103" s="14"/>
+      <c r="E103" s="14"/>
+      <c r="F103" s="14"/>
+      <c r="G103" s="14"/>
+    </row>
+    <row r="104" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A104" s="14"/>
+      <c r="B104" s="14"/>
+      <c r="C104" s="14"/>
+      <c r="D104" s="14"/>
+      <c r="E104" s="14"/>
+      <c r="F104" s="14"/>
+      <c r="G104" s="14"/>
+    </row>
+    <row r="105" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A105" s="14"/>
+      <c r="B105" s="14"/>
+      <c r="C105" s="14"/>
+      <c r="D105" s="14"/>
+      <c r="E105" s="14"/>
+      <c r="F105" s="14"/>
+      <c r="G105" s="14"/>
+    </row>
+    <row r="106" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A106" s="14"/>
+      <c r="B106" s="14"/>
+      <c r="C106" s="14"/>
+      <c r="D106" s="14"/>
+      <c r="E106" s="14"/>
+      <c r="F106" s="14"/>
+      <c r="G106" s="14"/>
+    </row>
+    <row r="107" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A107" s="14"/>
+      <c r="B107" s="14"/>
+      <c r="C107" s="14"/>
+      <c r="D107" s="14"/>
+      <c r="E107" s="14"/>
+      <c r="F107" s="14"/>
+      <c r="G107" s="14"/>
+    </row>
+    <row r="108" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A108" s="14"/>
+      <c r="B108" s="14"/>
+      <c r="C108" s="14"/>
+      <c r="D108" s="14"/>
+      <c r="E108" s="14"/>
+      <c r="F108" s="14"/>
+      <c r="G108" s="14"/>
+    </row>
+    <row r="109" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A109" s="14"/>
+      <c r="B109" s="14"/>
+      <c r="C109" s="14"/>
+      <c r="D109" s="14"/>
+      <c r="E109" s="14"/>
+      <c r="F109" s="14"/>
+      <c r="G109" s="14"/>
+    </row>
+    <row r="110" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A110" s="14"/>
+      <c r="B110" s="14"/>
+      <c r="C110" s="14"/>
+      <c r="D110" s="14"/>
+      <c r="E110" s="14"/>
+      <c r="F110" s="14"/>
+      <c r="G110" s="14"/>
+    </row>
+    <row r="111" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A111" s="14"/>
+      <c r="B111" s="14"/>
+      <c r="C111" s="14"/>
+      <c r="D111" s="14"/>
+      <c r="E111" s="14"/>
+      <c r="F111" s="14"/>
+      <c r="G111" s="14"/>
+    </row>
+    <row r="112" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A112" s="14"/>
+      <c r="B112" s="14"/>
+      <c r="C112" s="14"/>
+      <c r="D112" s="14"/>
+      <c r="E112" s="14"/>
+      <c r="F112" s="14"/>
+      <c r="G112" s="14"/>
+    </row>
+    <row r="113" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A113" s="14"/>
+      <c r="B113" s="14"/>
+      <c r="C113" s="14"/>
+      <c r="D113" s="14"/>
+      <c r="E113" s="14"/>
+      <c r="F113" s="14"/>
+      <c r="G113" s="14"/>
+    </row>
+    <row r="114" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A114" s="14"/>
+      <c r="B114" s="14"/>
+      <c r="C114" s="14"/>
+      <c r="D114" s="14"/>
+      <c r="E114" s="14"/>
+      <c r="F114" s="14"/>
+      <c r="G114" s="14"/>
+    </row>
+    <row r="115" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A115" s="14"/>
+      <c r="B115" s="14"/>
+      <c r="C115" s="14"/>
+      <c r="D115" s="14"/>
+      <c r="E115" s="14"/>
+      <c r="F115" s="14"/>
+      <c r="G115" s="14"/>
+    </row>
+    <row r="116" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A116" s="14"/>
+      <c r="B116" s="14"/>
+      <c r="C116" s="14"/>
+      <c r="D116" s="14"/>
+      <c r="E116" s="14"/>
+      <c r="F116" s="14"/>
+      <c r="G116" s="14"/>
+    </row>
+    <row r="117" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A117" s="14"/>
+      <c r="B117" s="14"/>
+      <c r="C117" s="14"/>
+      <c r="D117" s="14"/>
+      <c r="E117" s="14"/>
+      <c r="F117" s="14"/>
+      <c r="G117" s="14"/>
+    </row>
+    <row r="118" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A118" s="14"/>
+      <c r="B118" s="14"/>
+      <c r="C118" s="14"/>
+      <c r="D118" s="14"/>
+      <c r="E118" s="14"/>
+      <c r="F118" s="14"/>
+      <c r="G118" s="14"/>
+    </row>
+    <row r="119" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A119" s="14"/>
+      <c r="B119" s="14"/>
+      <c r="C119" s="14"/>
+      <c r="D119" s="14"/>
+      <c r="E119" s="14"/>
+      <c r="F119" s="14"/>
+      <c r="G119" s="14"/>
+    </row>
+    <row r="120" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A120" s="14"/>
+      <c r="B120" s="14"/>
+      <c r="C120" s="14"/>
+      <c r="D120" s="14"/>
+      <c r="E120" s="14"/>
+      <c r="F120" s="14"/>
+      <c r="G120" s="14"/>
+    </row>
+    <row r="121" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A121" s="14"/>
+      <c r="B121" s="14"/>
+      <c r="C121" s="14"/>
+      <c r="D121" s="14"/>
+      <c r="E121" s="14"/>
+      <c r="F121" s="14"/>
+      <c r="G121" s="14"/>
+    </row>
+    <row r="122" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A122" s="14"/>
+      <c r="B122" s="14"/>
+      <c r="C122" s="14"/>
+      <c r="D122" s="14"/>
+      <c r="E122" s="14"/>
+      <c r="F122" s="14"/>
+      <c r="G122" s="14"/>
+    </row>
+    <row r="123" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A123" s="14"/>
+      <c r="B123" s="14"/>
+      <c r="C123" s="14"/>
+      <c r="D123" s="14"/>
+      <c r="E123" s="14"/>
+      <c r="F123" s="14"/>
+      <c r="G123" s="14"/>
+    </row>
+    <row r="124" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A124" s="14"/>
+      <c r="B124" s="14"/>
+      <c r="C124" s="14"/>
+      <c r="D124" s="14"/>
+      <c r="E124" s="14"/>
+      <c r="F124" s="14"/>
+      <c r="G124" s="14"/>
+    </row>
+    <row r="125" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A125" s="14"/>
+      <c r="B125" s="14"/>
+      <c r="C125" s="14"/>
+      <c r="D125" s="14"/>
+      <c r="E125" s="14"/>
+      <c r="F125" s="14"/>
+      <c r="G125" s="14"/>
+    </row>
+    <row r="126" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A126" s="14"/>
+      <c r="B126" s="14"/>
+      <c r="C126" s="14"/>
+      <c r="D126" s="14"/>
+      <c r="E126" s="14"/>
+      <c r="F126" s="14"/>
+      <c r="G126" s="14"/>
+    </row>
+    <row r="127" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A127" s="14"/>
+      <c r="B127" s="14"/>
+      <c r="C127" s="14"/>
+      <c r="D127" s="14"/>
+      <c r="E127" s="14"/>
+      <c r="F127" s="14"/>
+      <c r="G127" s="14"/>
+    </row>
+    <row r="128" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A128" s="14"/>
+      <c r="B128" s="14"/>
+      <c r="C128" s="14"/>
+      <c r="D128" s="14"/>
+      <c r="E128" s="14"/>
+      <c r="F128" s="14"/>
+      <c r="G128" s="14"/>
+    </row>
+    <row r="129" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A129" s="14"/>
+      <c r="B129" s="14"/>
+      <c r="C129" s="14"/>
+      <c r="D129" s="14"/>
+      <c r="E129" s="14"/>
+      <c r="F129" s="14"/>
+      <c r="G129" s="14"/>
+    </row>
+    <row r="130" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A130" s="14"/>
+      <c r="B130" s="14"/>
+      <c r="C130" s="14"/>
+      <c r="D130" s="14"/>
+      <c r="E130" s="14"/>
+      <c r="F130" s="14"/>
+      <c r="G130" s="14"/>
+    </row>
+    <row r="131" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A131" s="14"/>
+      <c r="B131" s="14"/>
+      <c r="C131" s="14"/>
+      <c r="D131" s="14"/>
+      <c r="E131" s="14"/>
+      <c r="F131" s="14"/>
+      <c r="G131" s="14"/>
+    </row>
+    <row r="132" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A132" s="14"/>
+      <c r="B132" s="14"/>
+      <c r="C132" s="14"/>
+      <c r="D132" s="14"/>
+      <c r="E132" s="14"/>
+      <c r="F132" s="14"/>
+      <c r="G132" s="14"/>
+    </row>
+    <row r="133" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A133" s="14"/>
+      <c r="B133" s="14"/>
+      <c r="C133" s="14"/>
+      <c r="D133" s="14"/>
+      <c r="E133" s="14"/>
+      <c r="F133" s="14"/>
+      <c r="G133" s="14"/>
+    </row>
+    <row r="134" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A134" s="14"/>
+      <c r="B134" s="14"/>
+      <c r="C134" s="14"/>
+      <c r="D134" s="14"/>
+      <c r="E134" s="14"/>
+      <c r="F134" s="14"/>
+      <c r="G134" s="14"/>
+    </row>
+    <row r="135" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A135" s="14"/>
+      <c r="B135" s="14"/>
+      <c r="C135" s="14"/>
+      <c r="D135" s="14"/>
+      <c r="E135" s="14"/>
+      <c r="F135" s="14"/>
+      <c r="G135" s="14"/>
+    </row>
+    <row r="136" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A136" s="14"/>
+      <c r="B136" s="14"/>
+      <c r="C136" s="14"/>
+      <c r="D136" s="14"/>
+      <c r="E136" s="14"/>
+      <c r="F136" s="14"/>
+      <c r="G136" s="14"/>
+    </row>
+    <row r="137" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A137" s="14"/>
+      <c r="B137" s="14"/>
+      <c r="C137" s="14"/>
+      <c r="D137" s="14"/>
+      <c r="E137" s="14"/>
+      <c r="F137" s="14"/>
+      <c r="G137" s="14"/>
+    </row>
+    <row r="138" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A138" s="14"/>
+      <c r="B138" s="14"/>
+      <c r="C138" s="14"/>
+      <c r="D138" s="14"/>
+      <c r="E138" s="14"/>
+      <c r="F138" s="14"/>
+      <c r="G138" s="14"/>
+    </row>
+    <row r="139" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A139" s="14"/>
+      <c r="B139" s="14"/>
+      <c r="C139" s="14"/>
+      <c r="D139" s="14"/>
+      <c r="E139" s="14"/>
+      <c r="F139" s="14"/>
+      <c r="G139" s="14"/>
+    </row>
+    <row r="140" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A140" s="14"/>
+      <c r="B140" s="14"/>
+      <c r="C140" s="14"/>
+      <c r="D140" s="14"/>
+      <c r="E140" s="14"/>
+      <c r="F140" s="14"/>
+      <c r="G140" s="14"/>
+    </row>
+    <row r="141" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A141" s="14"/>
+      <c r="B141" s="14"/>
+      <c r="C141" s="14"/>
+      <c r="D141" s="14"/>
+      <c r="E141" s="14"/>
+      <c r="F141" s="14"/>
+      <c r="G141" s="14"/>
+    </row>
+    <row r="142" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A142" s="14"/>
+      <c r="B142" s="14"/>
+      <c r="C142" s="14"/>
+      <c r="D142" s="14"/>
+      <c r="E142" s="14"/>
+      <c r="F142" s="14"/>
+      <c r="G142" s="14"/>
+    </row>
+    <row r="143" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A143" s="14"/>
+      <c r="B143" s="14"/>
+      <c r="C143" s="14"/>
+      <c r="D143" s="14"/>
+      <c r="E143" s="14"/>
+      <c r="F143" s="14"/>
+      <c r="G143" s="14"/>
+    </row>
+    <row r="144" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A144" s="14"/>
+      <c r="B144" s="14"/>
+      <c r="C144" s="14"/>
+      <c r="D144" s="14"/>
+      <c r="E144" s="14"/>
+      <c r="F144" s="14"/>
+      <c r="G144" s="14"/>
+    </row>
+    <row r="145" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A145" s="14"/>
+      <c r="B145" s="14"/>
+      <c r="C145" s="14"/>
+      <c r="D145" s="14"/>
+      <c r="E145" s="14"/>
+      <c r="F145" s="14"/>
+      <c r="G145" s="14"/>
+    </row>
+    <row r="146" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A146" s="14"/>
+      <c r="B146" s="14"/>
+      <c r="C146" s="14"/>
+      <c r="D146" s="14"/>
+      <c r="E146" s="14"/>
+      <c r="F146" s="14"/>
+      <c r="G146" s="14"/>
+    </row>
+    <row r="147" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A147" s="14"/>
+      <c r="B147" s="14"/>
+      <c r="C147" s="14"/>
+      <c r="D147" s="14"/>
+      <c r="E147" s="14"/>
+      <c r="F147" s="14"/>
+      <c r="G147" s="14"/>
+    </row>
+    <row r="148" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A148" s="14"/>
+      <c r="B148" s="14"/>
+      <c r="C148" s="14"/>
+      <c r="D148" s="14"/>
+      <c r="E148" s="14"/>
+      <c r="F148" s="14"/>
+      <c r="G148" s="14"/>
+    </row>
+    <row r="149" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A149" s="14"/>
+      <c r="B149" s="14"/>
+      <c r="C149" s="14"/>
+      <c r="D149" s="14"/>
+      <c r="E149" s="14"/>
+      <c r="F149" s="14"/>
+      <c r="G149" s="14"/>
+    </row>
+    <row r="150" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A150" s="14"/>
+      <c r="B150" s="14"/>
+      <c r="C150" s="14"/>
+      <c r="D150" s="14"/>
+      <c r="E150" s="14"/>
+      <c r="F150" s="14"/>
+      <c r="G150" s="14"/>
+    </row>
+    <row r="151" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A151" s="14"/>
+      <c r="B151" s="14"/>
+      <c r="C151" s="14"/>
+      <c r="D151" s="14"/>
+      <c r="E151" s="14"/>
+      <c r="F151" s="14"/>
+      <c r="G151" s="14"/>
+    </row>
+    <row r="152" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A152" s="14"/>
+      <c r="B152" s="14"/>
+      <c r="C152" s="14"/>
+      <c r="D152" s="14"/>
+      <c r="E152" s="14"/>
+      <c r="F152" s="14"/>
+      <c r="G152" s="14"/>
+    </row>
+    <row r="153" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A153" s="14"/>
+      <c r="B153" s="14"/>
+      <c r="C153" s="14"/>
+      <c r="D153" s="14"/>
+      <c r="E153" s="14"/>
+      <c r="F153" s="14"/>
+      <c r="G153" s="14"/>
+    </row>
+    <row r="154" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A154" s="14"/>
+      <c r="B154" s="14"/>
+      <c r="C154" s="14"/>
+      <c r="D154" s="14"/>
+      <c r="E154" s="14"/>
+      <c r="F154" s="14"/>
+      <c r="G154" s="14"/>
+    </row>
+    <row r="155" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A155" s="14"/>
+      <c r="B155" s="14"/>
+      <c r="C155" s="14"/>
+      <c r="D155" s="14"/>
+      <c r="E155" s="14"/>
+      <c r="F155" s="14"/>
+      <c r="G155" s="14"/>
+    </row>
+    <row r="156" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A156" s="14"/>
+      <c r="B156" s="14"/>
+      <c r="C156" s="14"/>
+      <c r="D156" s="14"/>
+      <c r="E156" s="14"/>
+      <c r="F156" s="14"/>
+      <c r="G156" s="14"/>
+    </row>
+    <row r="157" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A157" s="14"/>
+      <c r="B157" s="14"/>
+      <c r="C157" s="14"/>
+      <c r="D157" s="14"/>
+      <c r="E157" s="14"/>
+      <c r="F157" s="14"/>
+      <c r="G157" s="14"/>
+    </row>
+    <row r="158" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A158" s="14"/>
+      <c r="B158" s="14"/>
+      <c r="C158" s="14"/>
+      <c r="D158" s="14"/>
+      <c r="E158" s="14"/>
+      <c r="F158" s="14"/>
+      <c r="G158" s="14"/>
+    </row>
+    <row r="159" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A159" s="14"/>
+      <c r="B159" s="14"/>
+      <c r="C159" s="14"/>
+      <c r="D159" s="14"/>
+      <c r="E159" s="14"/>
+      <c r="F159" s="14"/>
+      <c r="G159" s="14"/>
+    </row>
+    <row r="160" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A160" s="14"/>
+      <c r="B160" s="14"/>
+      <c r="C160" s="14"/>
+      <c r="D160" s="14"/>
+      <c r="E160" s="14"/>
+      <c r="F160" s="14"/>
+      <c r="G160" s="14"/>
+    </row>
+    <row r="161" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A161" s="14"/>
+      <c r="B161" s="14"/>
+      <c r="C161" s="14"/>
+      <c r="D161" s="14"/>
+      <c r="E161" s="14"/>
+      <c r="F161" s="14"/>
+      <c r="G161" s="14"/>
+    </row>
+    <row r="162" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A162" s="14"/>
+      <c r="B162" s="14"/>
+      <c r="C162" s="14"/>
+      <c r="D162" s="14"/>
+      <c r="E162" s="14"/>
+      <c r="F162" s="14"/>
+      <c r="G162" s="14"/>
+    </row>
+    <row r="163" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A163" s="14"/>
+      <c r="B163" s="14"/>
+      <c r="C163" s="14"/>
+      <c r="D163" s="14"/>
+      <c r="E163" s="14"/>
+      <c r="F163" s="14"/>
+      <c r="G163" s="14"/>
+    </row>
+    <row r="164" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A164" s="14"/>
+      <c r="B164" s="14"/>
+      <c r="C164" s="14"/>
+      <c r="D164" s="14"/>
+      <c r="E164" s="14"/>
+      <c r="F164" s="14"/>
+      <c r="G164" s="14"/>
+    </row>
+    <row r="165" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A165" s="14"/>
+      <c r="B165" s="14"/>
+      <c r="C165" s="14"/>
+      <c r="D165" s="14"/>
+      <c r="E165" s="14"/>
+      <c r="F165" s="14"/>
+      <c r="G165" s="14"/>
+    </row>
+    <row r="166" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A166" s="14"/>
+      <c r="B166" s="14"/>
+      <c r="C166" s="14"/>
+      <c r="D166" s="14"/>
+      <c r="E166" s="14"/>
+      <c r="F166" s="14"/>
+      <c r="G166" s="14"/>
+    </row>
+    <row r="167" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A167" s="14"/>
+      <c r="B167" s="14"/>
+      <c r="C167" s="14"/>
+      <c r="D167" s="14"/>
+      <c r="E167" s="14"/>
+      <c r="F167" s="14"/>
+      <c r="G167" s="14"/>
+    </row>
+    <row r="168" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A168" s="14"/>
+      <c r="B168" s="14"/>
+      <c r="C168" s="14"/>
+      <c r="D168" s="14"/>
+      <c r="E168" s="14"/>
+      <c r="F168" s="14"/>
+      <c r="G168" s="14"/>
+    </row>
+    <row r="169" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A169" s="14"/>
+      <c r="B169" s="14"/>
+      <c r="C169" s="14"/>
+      <c r="D169" s="14"/>
+      <c r="E169" s="14"/>
+      <c r="F169" s="14"/>
+      <c r="G169" s="14"/>
+    </row>
+    <row r="170" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A170" s="14"/>
+      <c r="B170" s="14"/>
+      <c r="C170" s="14"/>
+      <c r="D170" s="14"/>
+      <c r="E170" s="14"/>
+      <c r="F170" s="14"/>
+      <c r="G170" s="14"/>
+    </row>
+    <row r="171" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A171" s="14"/>
+      <c r="B171" s="14"/>
+      <c r="C171" s="14"/>
+      <c r="D171" s="14"/>
+      <c r="E171" s="14"/>
+      <c r="F171" s="14"/>
+      <c r="G171" s="14"/>
+    </row>
+    <row r="172" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A172" s="14"/>
+      <c r="B172" s="14"/>
+      <c r="C172" s="14"/>
+      <c r="D172" s="14"/>
+      <c r="E172" s="14"/>
+      <c r="F172" s="14"/>
+      <c r="G172" s="14"/>
+    </row>
+    <row r="173" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A173" s="14"/>
+      <c r="B173" s="14"/>
+      <c r="C173" s="14"/>
+      <c r="D173" s="14"/>
+      <c r="E173" s="14"/>
+      <c r="F173" s="14"/>
+      <c r="G173" s="14"/>
+    </row>
+    <row r="174" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A174" s="14"/>
+      <c r="B174" s="14"/>
+      <c r="C174" s="14"/>
+      <c r="D174" s="14"/>
+      <c r="E174" s="14"/>
+      <c r="F174" s="14"/>
+      <c r="G174" s="14"/>
+    </row>
+    <row r="175" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A175" s="14"/>
+      <c r="B175" s="14"/>
+      <c r="C175" s="14"/>
+      <c r="D175" s="14"/>
+      <c r="E175" s="14"/>
+      <c r="F175" s="14"/>
+      <c r="G175" s="14"/>
+    </row>
+    <row r="176" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A176" s="14"/>
+      <c r="B176" s="14"/>
+      <c r="C176" s="14"/>
+      <c r="D176" s="14"/>
+      <c r="E176" s="14"/>
+      <c r="F176" s="14"/>
+      <c r="G176" s="14"/>
+    </row>
+    <row r="177" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A177" s="14"/>
+      <c r="B177" s="14"/>
+      <c r="C177" s="14"/>
+      <c r="D177" s="14"/>
+      <c r="E177" s="14"/>
+      <c r="F177" s="14"/>
+      <c r="G177" s="14"/>
+    </row>
+    <row r="178" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A178" s="14"/>
+      <c r="B178" s="14"/>
+      <c r="C178" s="14"/>
+      <c r="D178" s="14"/>
+      <c r="E178" s="14"/>
+      <c r="F178" s="14"/>
+      <c r="G178" s="14"/>
+    </row>
+    <row r="179" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A179" s="14"/>
+      <c r="B179" s="14"/>
+      <c r="C179" s="14"/>
+      <c r="D179" s="14"/>
+      <c r="E179" s="14"/>
+      <c r="F179" s="14"/>
+      <c r="G179" s="14"/>
+    </row>
+    <row r="180" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A180" s="14"/>
+      <c r="B180" s="14"/>
+      <c r="C180" s="14"/>
+      <c r="D180" s="14"/>
+      <c r="E180" s="14"/>
+      <c r="F180" s="14"/>
+      <c r="G180" s="14"/>
+    </row>
+    <row r="181" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A181" s="14"/>
+      <c r="B181" s="14"/>
+      <c r="C181" s="14"/>
+      <c r="D181" s="14"/>
+      <c r="E181" s="14"/>
+      <c r="F181" s="14"/>
+      <c r="G181" s="14"/>
+    </row>
+    <row r="182" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A182" s="14"/>
+      <c r="B182" s="14"/>
+      <c r="C182" s="14"/>
+      <c r="D182" s="14"/>
+      <c r="E182" s="14"/>
+      <c r="F182" s="14"/>
+      <c r="G182" s="14"/>
+    </row>
+    <row r="183" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A183" s="14"/>
+      <c r="B183" s="14"/>
+      <c r="C183" s="14"/>
+      <c r="D183" s="14"/>
+      <c r="E183" s="14"/>
+      <c r="F183" s="14"/>
+      <c r="G183" s="14"/>
+    </row>
+    <row r="184" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A184" s="14"/>
+      <c r="B184" s="14"/>
+      <c r="C184" s="14"/>
+      <c r="D184" s="14"/>
+      <c r="E184" s="14"/>
+      <c r="F184" s="14"/>
+      <c r="G184" s="14"/>
+    </row>
+    <row r="185" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A185" s="14"/>
+      <c r="B185" s="14"/>
+      <c r="C185" s="14"/>
+      <c r="D185" s="14"/>
+      <c r="E185" s="14"/>
+      <c r="F185" s="14"/>
+      <c r="G185" s="14"/>
+    </row>
+    <row r="186" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A186" s="14"/>
+      <c r="B186" s="14"/>
+      <c r="C186" s="14"/>
+      <c r="D186" s="14"/>
+      <c r="E186" s="14"/>
+      <c r="F186" s="14"/>
+      <c r="G186" s="14"/>
+    </row>
+    <row r="187" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A187" s="14"/>
+      <c r="B187" s="14"/>
+      <c r="C187" s="14"/>
+      <c r="D187" s="14"/>
+      <c r="E187" s="14"/>
+      <c r="F187" s="14"/>
+      <c r="G187" s="14"/>
+    </row>
+    <row r="188" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A188" s="14"/>
+      <c r="B188" s="14"/>
+      <c r="C188" s="14"/>
+      <c r="D188" s="14"/>
+      <c r="E188" s="14"/>
+      <c r="F188" s="14"/>
+      <c r="G188" s="14"/>
+    </row>
+    <row r="189" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A189" s="14"/>
+      <c r="B189" s="14"/>
+      <c r="C189" s="14"/>
+      <c r="D189" s="14"/>
+      <c r="E189" s="14"/>
+      <c r="F189" s="14"/>
+      <c r="G189" s="14"/>
+    </row>
+    <row r="190" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A190" s="14"/>
+      <c r="B190" s="14"/>
+      <c r="C190" s="14"/>
+      <c r="D190" s="14"/>
+      <c r="E190" s="14"/>
+      <c r="F190" s="14"/>
+      <c r="G190" s="14"/>
+    </row>
+    <row r="191" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A191" s="14"/>
+      <c r="B191" s="14"/>
+      <c r="C191" s="14"/>
+      <c r="D191" s="14"/>
+      <c r="E191" s="14"/>
+      <c r="F191" s="14"/>
+      <c r="G191" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E6C48F6-D9AA-47E5-A06C-53CB55976C9E}">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19:D26"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31:B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="2"/>
-    <col min="2" max="2" width="22.44140625" customWidth="1"/>
-    <col min="3" max="3" width="28.88671875" customWidth="1"/>
-    <col min="4" max="4" width="26.21875" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="50.6640625" customWidth="1"/>
+    <col min="4" max="4" width="25.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.88671875" customWidth="1"/>
     <col min="6" max="6" width="17.77734375" customWidth="1"/>
     <col min="7" max="7" width="19.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B1" s="10" t="s">
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="14"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+    </row>
+    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="14"/>
+      <c r="B2" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-    </row>
-    <row r="2" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="D2" s="14"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="2:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="14"/>
       <c r="B3" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" s="14"/>
+        <v>75</v>
+      </c>
+      <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="2:7" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B4" s="10"/>
+    <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="14"/>
+      <c r="B4" s="10" t="s">
+        <v>43</v>
+      </c>
       <c r="C4" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D4" s="14"/>
+        <v>44</v>
+      </c>
+      <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="2:7" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="14"/>
       <c r="B5" s="10"/>
       <c r="C5" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" s="14"/>
+        <v>50</v>
+      </c>
+      <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="2:7" ht="52.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="14"/>
       <c r="B6" s="10"/>
       <c r="C6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="14"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" spans="2:7" ht="48.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="10"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
       <c r="G7" s="3"/>
     </row>
-    <row r="8" spans="2:7" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="15" t="s">
+    <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="14"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="3"/>
+    </row>
+    <row r="9" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="14"/>
+      <c r="B9" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C9" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D9" s="10" t="s">
         <v>48</v>
-      </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" spans="2:7" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="B9" s="2">
-        <v>1</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>4</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="2:7" s="2" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="B10" s="2">
-        <v>2</v>
+    <row r="10" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="14"/>
+      <c r="B10" s="3">
+        <v>1</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B11" s="2">
+    <row r="11" spans="1:7" s="2" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="14"/>
+      <c r="B11" s="3">
+        <v>2</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="14"/>
+      <c r="B12" s="3">
         <v>3</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C12" s="3" t="s">
         <v>3</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B12" s="3">
-        <v>4</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>12</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
+    </row>
+    <row r="13" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="14"/>
+      <c r="B13" s="3">
+        <v>4</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="14"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+    </row>
+    <row r="15" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A15" s="14"/>
+      <c r="B15" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="D14" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="C15" s="3"/>
+      <c r="D15" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E15" s="3"/>
+    </row>
+    <row r="16" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="14"/>
+      <c r="B16" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="17" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B17" s="10" t="s">
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="14"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="14"/>
+      <c r="B18" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-    </row>
-    <row r="18" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B18" s="10" t="s">
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="14"/>
+      <c r="B19" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="D18" s="14"/>
-    </row>
-    <row r="19" spans="2:4" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B19" s="10" t="s">
+      <c r="C19" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="14"/>
+      <c r="B20" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C20" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="14"/>
-    </row>
-    <row r="20" spans="2:4" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B20" s="10"/>
-      <c r="C20" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D20" s="14"/>
-    </row>
-    <row r="21" spans="2:4" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="14"/>
       <c r="B21" s="10"/>
       <c r="C21" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D21" s="14"/>
-    </row>
-    <row r="22" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A22" s="14"/>
       <c r="B22" s="10"/>
       <c r="C22" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="14"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D22" s="14"/>
-    </row>
-    <row r="23" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B23" s="10"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="14"/>
-    </row>
-    <row r="24" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B24" s="15" t="s">
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="14"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="14"/>
+      <c r="B25" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C25" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D24" s="15" t="s">
+      <c r="D25" s="10" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="25" spans="2:4" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="B25" s="2">
+      <c r="E25" s="3"/>
+    </row>
+    <row r="26" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A26" s="14"/>
+      <c r="B26" s="3">
         <v>1</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C26" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D26" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="26" spans="2:4" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="B26" s="2">
+      <c r="E26" s="3"/>
+    </row>
+    <row r="27" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A27" s="14"/>
+      <c r="B27" s="3">
         <v>2</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C27" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D27" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="27" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B27" s="2">
+      <c r="E27" s="3"/>
+    </row>
+    <row r="28" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="14"/>
+      <c r="B28" s="3">
         <v>3</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C28" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D27" s="2"/>
-    </row>
-    <row r="28" spans="2:4" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B28" s="3">
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+    </row>
+    <row r="29" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="14"/>
+      <c r="B29" s="3">
         <v>4</v>
       </c>
-      <c r="C28" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D28" s="3"/>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B30" s="2" t="s">
+      <c r="C29" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+    </row>
+    <row r="30" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="14"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+    </row>
+    <row r="31" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A31" s="14"/>
+      <c r="B31" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B31" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2" t="s">
+      <c r="C31" s="3"/>
+      <c r="D31" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E31" s="3"/>
+    </row>
+    <row r="32" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="14"/>
+      <c r="B32" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="E32" s="3"/>
+    </row>
+    <row r="33" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A33" s="14"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+    </row>
+    <row r="34" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A34" s="14"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3544,10 +5717,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C0D49DB-2967-4506-AF05-B88227F983E6}">
-  <dimension ref="B2:G90"/>
+  <dimension ref="B2:G84"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E19"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3558,6 +5731,7 @@
     <col min="4" max="4" width="21.5546875" customWidth="1"/>
     <col min="5" max="5" width="15.88671875" customWidth="1"/>
     <col min="6" max="6" width="22.44140625" customWidth="1"/>
+    <col min="7" max="7" width="14.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="39" customHeight="1" x14ac:dyDescent="0.3">
@@ -3572,7 +5746,7 @@
         <v>42</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="D3" s="14"/>
     </row>
@@ -3602,7 +5776,7 @@
     <row r="7" spans="2:5" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="10"/>
       <c r="C7" s="3" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="D7" s="14"/>
     </row>
@@ -3619,10 +5793,10 @@
         <v>47</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="31.2" x14ac:dyDescent="0.3">
@@ -3630,16 +5804,16 @@
         <v>1</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="D10" s="4"/>
-    </row>
-    <row r="11" spans="2:5" ht="31.2" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+      <c r="D10" s="5"/>
+    </row>
+    <row r="11" spans="2:5" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B11" s="2">
         <v>2</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="D11" s="5"/>
     </row>
@@ -3647,751 +5821,542 @@
       <c r="B12" s="2">
         <v>3</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="D12" s="5"/>
-    </row>
-    <row r="13" spans="2:5" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C12" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" ht="46.8" x14ac:dyDescent="0.3">
       <c r="B13" s="2">
         <v>4</v>
       </c>
-      <c r="C13" s="14" t="s">
-        <v>135</v>
+      <c r="C13" s="3" t="s">
+        <v>112</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" ht="46.8" x14ac:dyDescent="0.3">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B14" s="2">
         <v>5</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B15" s="2">
-        <v>6</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D15" s="3"/>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="2:7" ht="62.4" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="2:5" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="B16" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>149</v>
+        <v>60</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B18" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="C18" s="2"/>
       <c r="D18" s="2" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="D19" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B20" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+    </row>
     <row r="21" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" s="14"/>
+        <v>42</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>117</v>
+      </c>
       <c r="D21" s="14"/>
     </row>
-    <row r="22" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B22" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>124</v>
+        <v>43</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="D22" s="14"/>
     </row>
     <row r="23" spans="2:7" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B23" s="10" t="s">
-        <v>43</v>
-      </c>
+      <c r="B23" s="10"/>
       <c r="C23" s="3" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D23" s="14"/>
     </row>
-    <row r="24" spans="2:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="B24" s="10"/>
       <c r="C24" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D24" s="14"/>
     </row>
-    <row r="25" spans="2:7" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B25" s="10"/>
       <c r="C25" s="3" t="s">
-        <v>45</v>
+        <v>109</v>
       </c>
       <c r="D25" s="14"/>
     </row>
     <row r="26" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B26" s="10"/>
-      <c r="C26" s="3" t="s">
-        <v>116</v>
-      </c>
+      <c r="C26" s="3"/>
       <c r="D26" s="14"/>
     </row>
     <row r="27" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B27" s="10"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="14"/>
-    </row>
-    <row r="28" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B28" s="15" t="s">
+      <c r="B27" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C27" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D28" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="E28" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="F28" s="15" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="D27" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="G27" s="15" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B28" s="2">
+        <v>1</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D28" s="5"/>
+      <c r="F28" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B29" s="2">
-        <v>1</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="D29" s="4"/>
-    </row>
-    <row r="30" spans="2:7" ht="31.2" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="E29" s="9">
+        <v>333333</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="B30" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="D30" s="5"/>
-    </row>
-    <row r="31" spans="2:7" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C31" s="14" t="s">
+        <v>112</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B31" s="3">
+        <v>4</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D31" s="3"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+    </row>
+    <row r="33" spans="2:7" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="B33" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B34" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="D31" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="E31" s="9">
-        <v>333333</v>
-      </c>
-      <c r="F31" s="9" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="B32" s="2">
-        <v>3</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="F32" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="G32" s="9" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B33" s="3">
-        <v>4</v>
-      </c>
-      <c r="C33" s="3" t="s">
+      <c r="E34" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+    </row>
+    <row r="36" spans="2:7" s="2" customFormat="1" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="B36" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="D36" s="12"/>
+      <c r="E36" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D37" s="12"/>
+      <c r="E37" s="12" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B38" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+    </row>
+    <row r="39" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B39" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C39" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="D33" s="3"/>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-    </row>
-    <row r="35" spans="2:6" ht="171.6" x14ac:dyDescent="0.3">
-      <c r="B35" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B36" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D37" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6" s="2" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="B38" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="D38" s="12"/>
-      <c r="E38" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="D39" s="12"/>
-      <c r="E39" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D39" s="14"/>
+    </row>
+    <row r="40" spans="2:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B40" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="C40" s="14"/>
+        <v>43</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="D40" s="14"/>
     </row>
-    <row r="41" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B41" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C41" s="13" t="s">
-        <v>127</v>
+    <row r="41" spans="2:7" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B41" s="10"/>
+      <c r="C41" s="3" t="s">
+        <v>50</v>
       </c>
       <c r="D41" s="14"/>
     </row>
-    <row r="42" spans="2:6" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B42" s="10" t="s">
-        <v>43</v>
-      </c>
+    <row r="42" spans="2:7" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="B42" s="10"/>
       <c r="C42" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D42" s="14"/>
     </row>
-    <row r="43" spans="2:6" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B43" s="10"/>
       <c r="C43" s="3" t="s">
-        <v>50</v>
+        <v>109</v>
       </c>
       <c r="D43" s="14"/>
     </row>
-    <row r="44" spans="2:6" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B44" s="10"/>
-      <c r="C44" s="3" t="s">
-        <v>45</v>
-      </c>
+      <c r="C44" s="3"/>
       <c r="D44" s="14"/>
     </row>
-    <row r="45" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B45" s="10"/>
-      <c r="C45" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="D45" s="14"/>
-    </row>
-    <row r="46" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B46" s="10"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="14"/>
-    </row>
-    <row r="47" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B47" s="15" t="s">
+    <row r="45" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B45" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="C47" s="10" t="s">
+      <c r="C45" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D47" s="15"/>
-    </row>
-    <row r="48" spans="2:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="D45" s="15"/>
+    </row>
+    <row r="46" spans="2:7" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B46" s="2">
+        <v>1</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D46" s="4"/>
+    </row>
+    <row r="47" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B47" s="2">
+        <v>2</v>
+      </c>
+      <c r="C47" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="D47" s="5"/>
+      <c r="E47" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" s="2" customFormat="1" ht="46.8" x14ac:dyDescent="0.3">
       <c r="B48" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="D48" s="4"/>
-    </row>
-    <row r="49" spans="2:6" ht="31.2" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B49" s="2">
-        <v>2</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>118</v>
+        <v>4</v>
+      </c>
+      <c r="C49" s="14" t="s">
+        <v>142</v>
       </c>
       <c r="D49" s="5"/>
     </row>
-    <row r="50" spans="2:6" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B50" s="2">
-        <v>3</v>
-      </c>
-      <c r="C50" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="D50" s="5"/>
-    </row>
-    <row r="51" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B51" s="3">
-        <v>4</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D51" s="3"/>
-    </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-    </row>
-    <row r="53" spans="2:6" ht="62.4" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D50" s="3"/>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+    </row>
+    <row r="52" spans="2:6" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="B52" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B53" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C53" s="3"/>
-      <c r="D53" s="3" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B54" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="55" spans="2:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="12"/>
+        <v>60</v>
+      </c>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="12"/>
+    </row>
+    <row r="55" spans="2:6" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B55" s="10"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
     </row>
     <row r="56" spans="2:6" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B56" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C56" s="14"/>
+      <c r="B56" s="10"/>
+      <c r="C56" s="13"/>
       <c r="D56" s="14"/>
     </row>
-    <row r="57" spans="2:6" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B57" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C57" s="13" t="s">
-        <v>153</v>
-      </c>
+    <row r="57" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B57" s="10"/>
+      <c r="C57" s="3"/>
       <c r="D57" s="14"/>
-    </row>
-    <row r="58" spans="2:6" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B58" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>44</v>
-      </c>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+    </row>
+    <row r="58" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B58" s="10"/>
+      <c r="C58" s="3"/>
       <c r="D58" s="14"/>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
     </row>
-    <row r="59" spans="2:6" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B59" s="10"/>
-      <c r="C59" s="3" t="s">
-        <v>50</v>
-      </c>
+      <c r="C59" s="3"/>
       <c r="D59" s="14"/>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
     </row>
-    <row r="60" spans="2:6" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B60" s="10"/>
-      <c r="C60" s="3" t="s">
-        <v>45</v>
-      </c>
+      <c r="C60" s="3"/>
       <c r="D60" s="14"/>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
     </row>
     <row r="61" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B61" s="10"/>
-      <c r="C61" s="3" t="s">
-        <v>116</v>
-      </c>
+      <c r="C61" s="3"/>
       <c r="D61" s="14"/>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
     </row>
     <row r="62" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B62" s="10"/>
-      <c r="C62" s="3"/>
-      <c r="D62" s="14"/>
-      <c r="E62" s="2"/>
-      <c r="F62" s="2"/>
+      <c r="B62" s="15"/>
+      <c r="C62" s="10"/>
+      <c r="D62" s="15"/>
+      <c r="E62" s="15"/>
+      <c r="F62" s="15"/>
     </row>
     <row r="63" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B63" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="C63" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D63" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="E63" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="F63" s="15" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="64" spans="2:6" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B64" s="2">
-        <v>1</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="D64" s="4"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+    </row>
+    <row r="64" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B64" s="2"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="5"/>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
     </row>
-    <row r="65" spans="2:6" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B65" s="2">
-        <v>2</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="D65" s="5"/>
-      <c r="E65" s="2"/>
-      <c r="F65" s="2"/>
+    <row r="65" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B65" s="2"/>
+      <c r="C65" s="14"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="9"/>
     </row>
     <row r="66" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B66" s="2">
-        <v>3</v>
-      </c>
-      <c r="C66" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="D66" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="E66" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="F66" s="9" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="67" spans="2:6" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="B67" s="2">
-        <v>4</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="D67" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="E67" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="F67" s="9" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="68" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B68" s="2">
-        <v>5</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D68" s="3"/>
+      <c r="B66" s="2"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="9"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="9"/>
+    </row>
+    <row r="67" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B67" s="2"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
     </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B69" s="2"/>
-      <c r="C69" s="2"/>
-      <c r="D69" s="2"/>
-      <c r="E69" s="2"/>
-      <c r="F69" s="2"/>
-    </row>
-    <row r="70" spans="2:6" ht="124.8" x14ac:dyDescent="0.3">
-      <c r="B70" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C70" s="3"/>
-      <c r="D70" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="F70" s="3" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B71" s="12" t="s">
-        <v>62</v>
-      </c>
+    <row r="69" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B69" s="12"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="3"/>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B70" s="12"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
+    </row>
+    <row r="71" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B71" s="2"/>
       <c r="C71" s="2"/>
-      <c r="D71" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="72" spans="2:6" ht="78" x14ac:dyDescent="0.3">
-      <c r="B72" s="2" t="s">
-        <v>145</v>
-      </c>
+      <c r="D71" s="3"/>
+      <c r="E71" s="3"/>
+      <c r="F71" s="3"/>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B72" s="2"/>
       <c r="C72" s="2"/>
-      <c r="D72" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B73" s="2"/>
-      <c r="C73" s="2"/>
-      <c r="D73" s="12"/>
-      <c r="E73" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F73" s="2"/>
-    </row>
-    <row r="75" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B75" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="C75" s="14"/>
-      <c r="D75" s="14"/>
-      <c r="E75" s="2"/>
-    </row>
-    <row r="76" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B76" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C76" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="D76" s="14"/>
-      <c r="E76" s="2"/>
-    </row>
-    <row r="77" spans="2:6" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B77" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C77" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D77" s="14"/>
-      <c r="E77" s="2"/>
-    </row>
-    <row r="78" spans="2:6" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B78" s="10"/>
-      <c r="C78" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D78" s="14"/>
-      <c r="E78" s="2"/>
-    </row>
-    <row r="79" spans="2:6" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="B79" s="10"/>
-      <c r="C79" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D79" s="14"/>
-      <c r="E79" s="2"/>
-    </row>
-    <row r="80" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B80" s="10"/>
-      <c r="C80" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="D80" s="14"/>
-      <c r="E80" s="2"/>
-    </row>
-    <row r="81" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B81" s="10"/>
-      <c r="C81" s="3"/>
-      <c r="D81" s="14"/>
-      <c r="E81" s="2"/>
-    </row>
-    <row r="82" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B82" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="C82" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D82" s="15"/>
-      <c r="E82" s="2"/>
-    </row>
-    <row r="83" spans="2:6" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B83" s="2">
-        <v>1</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="D83" s="4"/>
-      <c r="E83" s="2"/>
-    </row>
-    <row r="84" spans="2:6" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B84" s="2">
-        <v>2</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="D84" s="5"/>
-      <c r="E84" s="2"/>
-    </row>
-    <row r="85" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B85" s="2"/>
-      <c r="C85" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="D85" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="E85" s="9"/>
-      <c r="F85" s="9"/>
-    </row>
-    <row r="86" spans="2:6" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B86" s="2">
-        <v>3</v>
-      </c>
-      <c r="C86" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="D86" s="5"/>
-      <c r="E86" s="2"/>
-    </row>
-    <row r="87" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B87" s="3">
-        <v>4</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D87" s="3"/>
-      <c r="E87" s="2"/>
-    </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B88" s="2"/>
-      <c r="C88" s="2"/>
-      <c r="D88" s="2"/>
-      <c r="E88" s="2"/>
-    </row>
-    <row r="89" spans="2:6" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="B89" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C89" s="3"/>
-      <c r="D89" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="E89" s="2"/>
-    </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B90" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="C90" s="2"/>
-      <c r="D90" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E90" s="2"/>
+      <c r="D72" s="12"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B84" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4401,10 +6366,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C43D6E25-CA09-4B28-ABDD-50E4432803CA}">
-  <dimension ref="B2:J59"/>
+  <dimension ref="B2:J84"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D22"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="F74" sqref="F74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4412,25 +6377,29 @@
     <col min="2" max="2" width="18.77734375" customWidth="1"/>
     <col min="3" max="3" width="33.21875" customWidth="1"/>
     <col min="4" max="4" width="26.77734375" customWidth="1"/>
+    <col min="5" max="5" width="20.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:9" ht="46.8" x14ac:dyDescent="0.3">
       <c r="B2" s="10" t="s">
         <v>41</v>
       </c>
       <c r="C2" s="14"/>
       <c r="D2" s="14"/>
-    </row>
-    <row r="3" spans="2:4" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="I2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B3" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>134</v>
+      <c r="C3" s="13" t="s">
+        <v>125</v>
       </c>
       <c r="D3" s="14"/>
     </row>
-    <row r="4" spans="2:4" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:9" ht="62.4" x14ac:dyDescent="0.3">
       <c r="B4" s="10" t="s">
         <v>43</v>
       </c>
@@ -4439,33 +6408,33 @@
       </c>
       <c r="D4" s="14"/>
     </row>
-    <row r="5" spans="2:4" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:9" ht="55.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="10"/>
       <c r="C5" s="3" t="s">
         <v>50</v>
       </c>
       <c r="D5" s="14"/>
     </row>
-    <row r="6" spans="2:4" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:9" ht="58.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="10"/>
       <c r="C6" s="3" t="s">
         <v>45</v>
       </c>
       <c r="D6" s="14"/>
     </row>
-    <row r="7" spans="2:4" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:9" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="10"/>
       <c r="C7" s="3" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="D7" s="14"/>
     </row>
-    <row r="8" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="10"/>
       <c r="C8" s="3"/>
       <c r="D8" s="14"/>
     </row>
-    <row r="9" spans="2:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B9" s="15" t="s">
         <v>46</v>
       </c>
@@ -4476,502 +6445,709 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C10" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C11" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="D11" s="16" t="s">
+    <row r="10" spans="2:9" s="2" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B10" s="15">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D10" s="15"/>
+    </row>
+    <row r="11" spans="2:9" s="2" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B11" s="15">
+        <v>2</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="D11" s="14"/>
+    </row>
+    <row r="12" spans="2:9" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B12" s="15">
+        <v>3</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B13" s="15">
+        <v>4</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B14" s="15">
+        <v>5</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B15" s="15">
+        <v>6</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="D15" s="16" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C12" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="D12" s="16" t="s">
+    <row r="16" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B16" s="15">
+        <v>7</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="D16" s="16" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C13" s="14" t="s">
+    <row r="17" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B17" s="15">
+        <v>8</v>
+      </c>
+      <c r="C17" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D13" s="16" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C14" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="D14" s="16" t="s">
+      <c r="D17" s="16" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B18" s="15">
+        <v>9</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="D18" s="16" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C15" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="D15" s="16">
+    <row r="19" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B19" s="15">
+        <v>10</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="D19" s="16">
         <v>369963</v>
       </c>
     </row>
-    <row r="16" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C16" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="D16" s="16">
+    <row r="20" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B20" s="15">
+        <v>11</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="D20" s="16">
         <v>123321</v>
       </c>
     </row>
-    <row r="17" spans="2:10" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B18" s="12" t="s">
+    <row r="21" spans="2:10" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="15">
+        <v>12</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" s="2" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="15">
+        <v>13</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D22" s="9"/>
+    </row>
+    <row r="23" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B23" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="D18" s="16" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B19" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="D19" s="16" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B23" s="10" t="s">
+      <c r="D23" s="16" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B24" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B28" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-    </row>
-    <row r="24" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B24" s="10" t="s">
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+    </row>
+    <row r="29" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B29" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="D24" s="14"/>
-    </row>
-    <row r="25" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B25" s="10" t="s">
+      <c r="C29" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="D29" s="14"/>
+    </row>
+    <row r="30" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B30" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C30" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D25" s="14"/>
-    </row>
-    <row r="26" spans="2:10" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B26" s="10"/>
-      <c r="C26" s="3" t="s">
+      <c r="D30" s="14"/>
+    </row>
+    <row r="31" spans="2:10" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B31" s="10"/>
+      <c r="C31" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="D26" s="14"/>
-      <c r="J26" s="15" t="s">
+      <c r="D31" s="14"/>
+      <c r="J31" s="15" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="2:10" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="B27" s="10"/>
-      <c r="C27" s="3" t="s">
+    <row r="32" spans="2:10" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="B32" s="10"/>
+      <c r="C32" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D27" s="14"/>
-      <c r="J27" s="2"/>
-    </row>
-    <row r="28" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B28" s="10"/>
-      <c r="C28" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="D28" s="14"/>
-      <c r="J28" s="2"/>
-    </row>
-    <row r="29" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B29" s="10"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="14"/>
-      <c r="J29" s="2"/>
-    </row>
-    <row r="30" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B30" s="15" t="s">
+      <c r="D32" s="14"/>
+      <c r="J32" s="2"/>
+    </row>
+    <row r="33" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B33" s="10"/>
+      <c r="C33" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D33" s="14"/>
+      <c r="J33" s="2"/>
+    </row>
+    <row r="34" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B34" s="10"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="14"/>
+      <c r="J34" s="2"/>
+    </row>
+    <row r="35" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B35" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C35" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D30" s="15" t="s">
+      <c r="D35" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="J30" s="2"/>
-    </row>
-    <row r="31" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B31" s="2"/>
-      <c r="C31" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="D31" s="2"/>
-      <c r="J31" s="2"/>
-    </row>
-    <row r="32" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B32" s="2"/>
-      <c r="C32" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="D32" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="J32" s="2"/>
-    </row>
-    <row r="33" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B33" s="2"/>
-      <c r="C33" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="D33" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="J33" s="2"/>
-    </row>
-    <row r="34" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B34" s="2"/>
-      <c r="C34" s="14" t="s">
+      <c r="J35" s="2"/>
+    </row>
+    <row r="36" spans="2:10" s="2" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B36" s="15">
+        <v>1</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D36" s="15"/>
+    </row>
+    <row r="37" spans="2:10" s="2" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B37" s="15">
+        <v>2</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="D37" s="15"/>
+    </row>
+    <row r="38" spans="2:10" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B38" s="15">
+        <v>3</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D38" s="15"/>
+    </row>
+    <row r="39" spans="2:10" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B39" s="15">
+        <v>4</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D39" s="15"/>
+    </row>
+    <row r="40" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B40" s="15">
+        <v>5</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="D40" s="2"/>
+      <c r="J40" s="2"/>
+    </row>
+    <row r="41" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B41" s="15">
+        <v>6</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="D41" s="14"/>
+      <c r="J41" s="2"/>
+    </row>
+    <row r="42" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B42" s="15">
+        <v>7</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="D42" s="14"/>
+      <c r="J42" s="2"/>
+    </row>
+    <row r="43" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B43" s="15">
+        <v>8</v>
+      </c>
+      <c r="C43" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="D34" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="J34" s="2"/>
-    </row>
-    <row r="35" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B35" s="2"/>
-      <c r="C35" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="D35" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="J35" s="16" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="36" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B36" s="2"/>
-      <c r="C36" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="D36" s="16">
-        <v>369963</v>
-      </c>
-      <c r="J36" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="37" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B37" s="2"/>
-      <c r="C37" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="D37" s="16">
-        <v>123321</v>
-      </c>
-      <c r="J37" s="2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="38" spans="2:10" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="B38" s="2"/>
-      <c r="C38" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="J38" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="39" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B39" s="12" t="s">
+      <c r="D43" s="16"/>
+      <c r="J43" s="2"/>
+    </row>
+    <row r="44" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B44" s="15">
+        <v>9</v>
+      </c>
+      <c r="C44" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="D44" s="16"/>
+      <c r="J44" s="16"/>
+    </row>
+    <row r="45" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B45" s="15">
+        <v>10</v>
+      </c>
+      <c r="C45" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="D45" s="16"/>
+      <c r="J45" s="2"/>
+    </row>
+    <row r="46" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B46" s="15">
+        <v>11</v>
+      </c>
+      <c r="C46" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="D46" s="16"/>
+      <c r="J46" s="2"/>
+    </row>
+    <row r="47" spans="2:10" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="B47" s="15">
+        <v>12</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D47" s="2"/>
+      <c r="J47" s="2"/>
+    </row>
+    <row r="48" spans="2:10" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B48" s="15">
+        <v>13</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B49" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="C39" s="2"/>
-      <c r="D39" s="16" t="s">
-        <v>169</v>
-      </c>
-      <c r="J39" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B40" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="J40" s="2" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="42" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B42" s="10" t="s">
+      <c r="C49" s="2"/>
+      <c r="D49" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="J49" s="2"/>
+    </row>
+    <row r="50" spans="2:10" ht="66" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C50" s="2"/>
+      <c r="D50" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="J50" s="2"/>
+    </row>
+    <row r="52" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B52" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="C42" s="14"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-    </row>
-    <row r="43" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B43" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C43" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="D43" s="14"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-    </row>
-    <row r="44" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B44" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D44" s="14"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-    </row>
-    <row r="45" spans="2:10" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B45" s="10"/>
-      <c r="C45" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D45" s="14"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-    </row>
-    <row r="46" spans="2:10" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="B46" s="10"/>
-      <c r="C46" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D46" s="14"/>
-      <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-    </row>
-    <row r="47" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B47" s="10"/>
-      <c r="C47" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="D47" s="14"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
-    </row>
-    <row r="48" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B48" s="10"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
-      <c r="H48" s="2"/>
-    </row>
-    <row r="49" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B49" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D49" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
-    </row>
-    <row r="50" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B50" s="2"/>
-      <c r="C50" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
-    </row>
-    <row r="51" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B51" s="2"/>
-      <c r="C51" s="14" t="s">
-        <v>136</v>
-      </c>
-      <c r="D51" s="14" t="s">
-        <v>172</v>
-      </c>
-      <c r="E51" s="14" t="s">
-        <v>175</v>
-      </c>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
-    </row>
-    <row r="52" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B52" s="2"/>
-      <c r="C52" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="D52" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="E52" s="14" t="s">
-        <v>33</v>
-      </c>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="2"/>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
     </row>
-    <row r="53" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B53" s="2"/>
-      <c r="C53" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="D53" s="16" t="s">
-        <v>142</v>
-      </c>
-      <c r="E53" s="16" t="s">
-        <v>168</v>
-      </c>
+    <row r="53" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B53" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C53" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="D53" s="14"/>
+      <c r="E53" s="2"/>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
     </row>
-    <row r="54" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B54" s="2"/>
-      <c r="C54" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="D54" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="E54" s="16" t="s">
-        <v>36</v>
-      </c>
+    <row r="54" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B54" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D54" s="14"/>
+      <c r="E54" s="2"/>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
     </row>
-    <row r="55" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B55" s="2"/>
-      <c r="C55" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="D55" s="16" t="s">
-        <v>173</v>
-      </c>
-      <c r="E55" s="16">
-        <v>369963</v>
-      </c>
+    <row r="55" spans="2:10" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B55" s="10"/>
+      <c r="C55" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D55" s="14"/>
+      <c r="E55" s="2"/>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
     </row>
-    <row r="56" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B56" s="2"/>
-      <c r="C56" s="14" t="s">
-        <v>140</v>
-      </c>
-      <c r="D56" s="16">
-        <v>123321</v>
-      </c>
-      <c r="E56" s="16">
-        <v>123321</v>
-      </c>
+    <row r="56" spans="2:10" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="B56" s="10"/>
+      <c r="C56" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D56" s="14"/>
+      <c r="E56" s="2"/>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
     </row>
-    <row r="57" spans="2:8" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="B57" s="2"/>
+    <row r="57" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B57" s="10"/>
       <c r="C57" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="D57" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="E57" s="16" t="s">
-        <v>157</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="D57" s="14"/>
+      <c r="E57" s="2"/>
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
       <c r="H57" s="2"/>
     </row>
-    <row r="58" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B58" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C58" s="2"/>
-      <c r="D58" s="16" t="s">
-        <v>169</v>
-      </c>
+    <row r="58" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B58" s="10"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="14"/>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
     </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B59" s="12" t="s">
+    <row r="59" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B59" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D59" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="E59" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
       <c r="H59" s="2"/>
+    </row>
+    <row r="60" spans="2:10" s="2" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B60" s="15">
+        <v>1</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D60" s="15"/>
+      <c r="E60" s="15"/>
+    </row>
+    <row r="61" spans="2:10" s="2" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B61" s="15">
+        <v>2</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="D61" s="15"/>
+      <c r="E61" s="15"/>
+    </row>
+    <row r="62" spans="2:10" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B62" s="15">
+        <v>3</v>
+      </c>
+      <c r="C62" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E62" s="15" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="63" spans="2:10" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B63" s="15">
+        <v>4</v>
+      </c>
+      <c r="C63" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E63" s="15" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="64" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B64" s="15">
+        <v>5</v>
+      </c>
+      <c r="C64" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E64" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+    </row>
+    <row r="65" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B65" s="15">
+        <v>6</v>
+      </c>
+      <c r="C65" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="D65" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="E65" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
+    </row>
+    <row r="66" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B66" s="15">
+        <v>7</v>
+      </c>
+      <c r="C66" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="D66" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E66" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2"/>
+      <c r="H66" s="2"/>
+    </row>
+    <row r="67" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B67" s="15">
+        <v>8</v>
+      </c>
+      <c r="C67" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D67" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="E67" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
+    </row>
+    <row r="68" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B68" s="15">
+        <v>9</v>
+      </c>
+      <c r="C68" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="D68" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E68" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2"/>
+      <c r="H68" s="2"/>
+    </row>
+    <row r="69" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B69" s="15">
+        <v>10</v>
+      </c>
+      <c r="C69" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="D69" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="E69" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2"/>
+      <c r="H69" s="2"/>
+    </row>
+    <row r="70" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B70" s="15">
+        <v>11</v>
+      </c>
+      <c r="C70" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="D70" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="E70" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="F70" s="2"/>
+      <c r="G70" s="2"/>
+      <c r="H70" s="2"/>
+    </row>
+    <row r="71" spans="2:8" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="B71" s="15">
+        <v>12</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D71" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="E71" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="F71" s="2"/>
+      <c r="G71" s="2"/>
+      <c r="H71" s="2"/>
+    </row>
+    <row r="72" spans="2:8" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B72" s="15">
+        <v>13</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D72" s="9"/>
+      <c r="E72" s="16"/>
+    </row>
+    <row r="73" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B73" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C73" s="2"/>
+      <c r="D73" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="E73" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="F73" s="2"/>
+      <c r="G73" s="2"/>
+      <c r="H73" s="2"/>
+    </row>
+    <row r="74" spans="2:8" ht="195" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B74" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C74" s="2"/>
+      <c r="D74" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E74" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="F74" s="2"/>
+      <c r="G74" s="2"/>
+      <c r="H74" s="2"/>
+    </row>
+    <row r="75" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B75" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E75" s="16" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="76" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E76" s="16" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="B84" s="6" t="s">
+        <v>227</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -5007,7 +7183,7 @@
         <v>42</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>176</v>
+        <v>153</v>
       </c>
       <c r="D3" s="14"/>
     </row>
@@ -5037,7 +7213,7 @@
     <row r="7" spans="2:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B7" s="10"/>
       <c r="C7" s="3" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="D7" s="14"/>
     </row>
@@ -5054,7 +7230,7 @@
         <v>47</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="78" x14ac:dyDescent="0.3">
@@ -5062,7 +7238,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="D10" s="5"/>
     </row>
@@ -5071,7 +7247,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>177</v>
+        <v>154</v>
       </c>
       <c r="D11" s="5"/>
     </row>
@@ -5080,7 +7256,7 @@
         <v>6</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>204</v>
+        <v>181</v>
       </c>
       <c r="D12" s="3"/>
     </row>
@@ -5095,7 +7271,7 @@
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.3">
@@ -5115,341 +7291,1097 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D5DC335-FBBD-498A-B596-929A8D4E494F}">
-  <dimension ref="B2:D52"/>
+  <dimension ref="B1:N134"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+    <sheetView topLeftCell="B137" workbookViewId="0">
+      <selection activeCell="H138" sqref="H138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="27.88671875" customWidth="1"/>
-    <col min="3" max="3" width="33" customWidth="1"/>
-    <col min="4" max="4" width="23.5546875" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43.44140625" customWidth="1"/>
+    <col min="4" max="4" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="21" x14ac:dyDescent="0.4">
-      <c r="B2" s="17" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B4" s="10" t="s">
-        <v>68</v>
-      </c>
+    <row r="1" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+    </row>
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+    </row>
+    <row r="3" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+    </row>
+    <row r="4" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B4" s="10"/>
       <c r="C4" s="3"/>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B5" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="2:4" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="B6" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B7" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="2:4" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+    </row>
+    <row r="5" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B5" s="10"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+    </row>
+    <row r="6" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B6" s="10"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+    </row>
+    <row r="7" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B7" s="10"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+    </row>
+    <row r="8" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="10"/>
-      <c r="C8" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="2:4" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="C8" s="3"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+    </row>
+    <row r="9" spans="2:14" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="10"/>
-      <c r="C9" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C9" s="3"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+    </row>
+    <row r="10" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
-      <c r="C10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C10" s="3"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+    </row>
+    <row r="11" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B11" s="10"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+    </row>
+    <row r="12" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B12" s="10"/>
       <c r="C12" s="3"/>
-      <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B13" s="10" t="s">
-        <v>83</v>
-      </c>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+    </row>
+    <row r="13" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B13" s="10"/>
       <c r="C13" s="10"/>
-      <c r="D13" s="12" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="B14" s="10">
-        <v>1</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B15" s="10">
-        <v>2</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B16" s="10">
-        <v>3</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>3</v>
-      </c>
+      <c r="D13" s="15"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+    </row>
+    <row r="14" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B14" s="10"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+    </row>
+    <row r="15" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B15" s="10"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+    </row>
+    <row r="16" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B16" s="10"/>
+      <c r="C16" s="3"/>
       <c r="D16" s="3"/>
-    </row>
-    <row r="17" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+    </row>
+    <row r="17" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
       <c r="D17" s="3"/>
-    </row>
-    <row r="18" spans="2:4" ht="78" x14ac:dyDescent="0.3">
-      <c r="D18" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D19" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+    </row>
+    <row r="18" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+    </row>
+    <row r="19" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+    </row>
+    <row r="20" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
       <c r="D20" s="3"/>
-    </row>
-    <row r="21" spans="2:4" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="D21" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+    </row>
+    <row r="21" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
+    </row>
+    <row r="22" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14"/>
+    </row>
+    <row r="23" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B23" s="10"/>
       <c r="C23" s="3"/>
-      <c r="D23" s="2"/>
-    </row>
-    <row r="24" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+      <c r="M23" s="14"/>
+      <c r="N23" s="14"/>
+    </row>
+    <row r="24" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B24" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
+      <c r="M24" s="14"/>
+      <c r="N24" s="14"/>
+    </row>
+    <row r="25" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B25" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="14"/>
+    </row>
+    <row r="26" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="14"/>
+    </row>
+    <row r="27" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="14"/>
+      <c r="N27" s="14"/>
+    </row>
+    <row r="28" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B28" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="C24" s="2"/>
-    </row>
-    <row r="25" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B25" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="2"/>
-    </row>
-    <row r="28" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B28" s="10" t="s">
-        <v>68</v>
-      </c>
       <c r="C28" s="3"/>
-      <c r="D28" s="2"/>
-    </row>
-    <row r="29" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="14"/>
+    </row>
+    <row r="29" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B29" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="14"/>
+      <c r="N29" s="14"/>
+    </row>
+    <row r="30" spans="2:14" ht="78" x14ac:dyDescent="0.3">
+      <c r="B30" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="C29" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="D29" s="2"/>
-    </row>
-    <row r="30" spans="2:4" ht="124.8" x14ac:dyDescent="0.3">
-      <c r="B30" s="10" t="s">
-        <v>86</v>
-      </c>
       <c r="C30" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D30" s="2"/>
-    </row>
-    <row r="31" spans="2:4" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B31" s="10"/>
-      <c r="C31" s="3"/>
-    </row>
-    <row r="32" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B32" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="14"/>
+    </row>
+    <row r="31" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B31" s="10" t="s">
         <v>43</v>
       </c>
+      <c r="C31" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="14"/>
+      <c r="N31" s="14"/>
+    </row>
+    <row r="32" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B32" s="10"/>
       <c r="C32" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D32" s="2"/>
-    </row>
-    <row r="33" spans="2:4" ht="31.2" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="14"/>
+      <c r="N32" s="14"/>
+    </row>
+    <row r="33" spans="2:14" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B33" s="10"/>
       <c r="C33" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="D33" s="2"/>
-    </row>
-    <row r="34" spans="2:4" ht="46.8" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="14"/>
+      <c r="L33" s="14"/>
+      <c r="M33" s="14"/>
+      <c r="N33" s="14"/>
+    </row>
+    <row r="34" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B34" s="10"/>
       <c r="C34" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D34" s="2"/>
-    </row>
-    <row r="35" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="14"/>
+      <c r="K34" s="14"/>
+      <c r="L34" s="14"/>
+      <c r="M34" s="14"/>
+      <c r="N34" s="14"/>
+    </row>
+    <row r="35" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B35" s="10"/>
-      <c r="C35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D35" s="2"/>
-    </row>
-    <row r="36" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C35" s="3"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="14"/>
+      <c r="K35" s="14"/>
+      <c r="L35" s="14"/>
+      <c r="M35" s="14"/>
+      <c r="N35" s="14"/>
+    </row>
+    <row r="36" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B36" s="10"/>
       <c r="C36" s="3"/>
-      <c r="D36" s="2"/>
-    </row>
-    <row r="37" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B37" s="10"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="2"/>
-    </row>
-    <row r="38" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B38" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="C38" s="10"/>
-      <c r="D38" s="12" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="14"/>
+      <c r="K36" s="14"/>
+      <c r="L36" s="14"/>
+      <c r="M36" s="14"/>
+      <c r="N36" s="14"/>
+    </row>
+    <row r="37" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B37" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C37" s="10"/>
+      <c r="D37" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="14"/>
+      <c r="K37" s="14"/>
+      <c r="L37" s="14"/>
+      <c r="M37" s="14"/>
+      <c r="N37" s="14"/>
+    </row>
+    <row r="38" spans="2:14" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="B38" s="10">
+        <v>1</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D38" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="14"/>
+      <c r="L38" s="14"/>
+      <c r="M38" s="14"/>
+      <c r="N38" s="14"/>
+    </row>
+    <row r="39" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B39" s="10">
+        <v>2</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
+      <c r="I39" s="14"/>
+      <c r="J39" s="14"/>
+      <c r="K39" s="14"/>
+      <c r="L39" s="14"/>
+      <c r="M39" s="14"/>
+      <c r="N39" s="14"/>
+    </row>
+    <row r="40" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B40" s="10">
+        <v>3</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D40" s="3"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="14"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="14"/>
+      <c r="K40" s="14"/>
+      <c r="L40" s="14"/>
+      <c r="M40" s="14"/>
+      <c r="N40" s="14"/>
+    </row>
+    <row r="41" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B41" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C41" s="14"/>
+      <c r="D41" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="14"/>
+      <c r="I41" s="14"/>
+      <c r="J41" s="14"/>
+      <c r="K41" s="14"/>
+      <c r="L41" s="14"/>
+      <c r="M41" s="14"/>
+      <c r="N41" s="14"/>
+    </row>
+    <row r="42" spans="2:14" ht="78" x14ac:dyDescent="0.3">
+      <c r="B42" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="14"/>
+      <c r="J42" s="14"/>
+      <c r="K42" s="14"/>
+      <c r="L42" s="14"/>
+      <c r="M42" s="14"/>
+      <c r="N42" s="14"/>
+    </row>
+    <row r="43" spans="2:14" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B43" s="12"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B44" s="12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B63" s="14"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="14"/>
+    </row>
+    <row r="64" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B64" s="14"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="14"/>
+    </row>
+    <row r="65" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B65" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C65" s="3"/>
+      <c r="D65" s="14"/>
+    </row>
+    <row r="66" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B66" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C66" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="D66" s="14"/>
+    </row>
+    <row r="67" spans="2:5" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="B67" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="D67" s="14"/>
+    </row>
+    <row r="68" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B68" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D68" s="14"/>
+    </row>
+    <row r="69" spans="2:5" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B69" s="10"/>
+      <c r="C69" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D69" s="14"/>
+    </row>
+    <row r="70" spans="2:5" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B70" s="10"/>
+      <c r="C70" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D70" s="14"/>
+    </row>
+    <row r="71" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B71" s="10"/>
+      <c r="C71" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D71" s="14"/>
+    </row>
+    <row r="72" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B72" s="10"/>
+      <c r="C72" s="3"/>
+      <c r="D72" s="14"/>
+    </row>
+    <row r="73" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B73" s="10"/>
+      <c r="C73" s="3"/>
+      <c r="D73" s="14"/>
+    </row>
+    <row r="74" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B74" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C74" s="10"/>
+      <c r="D74" s="15" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B75" s="10">
         <v>1</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C75" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D75" s="2"/>
+    </row>
+    <row r="76" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B76" s="10">
+        <v>2</v>
+      </c>
+      <c r="C76" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="D76" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="E76" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B77" s="10">
+        <v>3</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D77" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="E77" s="9" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B78" s="10">
+        <v>4</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D78" s="2"/>
+    </row>
+    <row r="79" spans="2:5" ht="85.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B79" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C79" s="3"/>
+      <c r="D79" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5" ht="106.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B80" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B82" s="12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="109" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B109" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C109" s="3"/>
+      <c r="D109" s="14"/>
+      <c r="E109" s="2"/>
+    </row>
+    <row r="110" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B110" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C110" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="D110" s="14"/>
+      <c r="E110" s="2"/>
+    </row>
+    <row r="111" spans="2:5" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="B111" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="D111" s="14"/>
+      <c r="E111" s="2"/>
+    </row>
+    <row r="112" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B112" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D112" s="14"/>
+      <c r="E112" s="2"/>
+    </row>
+    <row r="113" spans="2:5" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B113" s="10"/>
+      <c r="C113" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D113" s="14"/>
+      <c r="E113" s="2"/>
+    </row>
+    <row r="114" spans="2:5" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B114" s="10"/>
+      <c r="C114" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D114" s="14"/>
+      <c r="E114" s="2"/>
+    </row>
+    <row r="115" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B115" s="10"/>
+      <c r="C115" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D115" s="14"/>
+      <c r="E115" s="2"/>
+    </row>
+    <row r="116" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B116" s="10"/>
+      <c r="C116" s="3"/>
+      <c r="D116" s="14"/>
+      <c r="E116" s="2"/>
+    </row>
+    <row r="117" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B117" s="10"/>
+      <c r="C117" s="3"/>
+      <c r="D117" s="14"/>
+      <c r="E117" s="2"/>
+    </row>
+    <row r="118" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B118" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C118" s="10"/>
+      <c r="D118" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="E118" s="2"/>
+    </row>
+    <row r="119" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B119" s="10">
         <v>1</v>
       </c>
-      <c r="D39" s="18" t="s">
+      <c r="C119" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="120" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B120" s="10">
+        <v>2</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="121" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B121" s="10">
+        <v>3</v>
+      </c>
+      <c r="C121" s="14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="122" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B122" s="10">
         <v>4</v>
       </c>
-    </row>
-    <row r="40" spans="2:4" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B40" s="10">
-        <v>2</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B41" s="10">
-        <v>3</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D41" s="3"/>
-    </row>
-    <row r="42" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="3"/>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-    </row>
-    <row r="44" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="3"/>
-    </row>
-    <row r="45" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="3"/>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-    </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-    </row>
-    <row r="48" spans="2:4" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B48" s="10"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="2"/>
-    </row>
-    <row r="49" spans="2:4" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B49" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="C49" s="2"/>
-      <c r="D49" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4" ht="78" x14ac:dyDescent="0.3">
-      <c r="B50" s="12" t="s">
+      <c r="C122" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D122" s="2"/>
+      <c r="E122" s="2"/>
+    </row>
+    <row r="123" spans="2:5" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B123" s="10">
+        <v>5</v>
+      </c>
+      <c r="C123" s="14" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="124" spans="2:5" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B124" s="10">
+        <v>6</v>
+      </c>
+      <c r="C124" s="14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="125" spans="2:5" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B125" s="10">
+        <v>7</v>
+      </c>
+      <c r="C125" s="14" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="126" spans="2:5" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B126" s="10">
+        <v>8</v>
+      </c>
+      <c r="C126" s="14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="127" spans="2:5" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B127" s="10">
+        <v>9</v>
+      </c>
+      <c r="C127" s="14" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="128" spans="2:5" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B128" s="10">
+        <v>10</v>
+      </c>
+      <c r="C128" s="14" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="129" spans="2:7" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B129" s="10">
+        <v>11</v>
+      </c>
+      <c r="C129" s="14" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="130" spans="2:7" s="2" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="B130" s="10">
+        <v>12</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="131" spans="2:7" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B131" s="10">
+        <v>13</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="132" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B132" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="51" spans="2:4" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B51" s="12"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
-    </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B52" s="12" t="s">
-        <v>93</v>
-      </c>
+      <c r="C132" s="2"/>
+      <c r="D132" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="E132" s="2"/>
+      <c r="F132" s="2"/>
+      <c r="G132" s="2"/>
+    </row>
+    <row r="133" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B133" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C133" s="2"/>
+      <c r="D133" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="E133" s="2"/>
+      <c r="F133" s="2"/>
+      <c r="G133" s="2"/>
+    </row>
+    <row r="134" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B134" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C134" s="2"/>
+      <c r="D134" s="2"/>
+      <c r="E134" s="16"/>
+      <c r="F134" s="2"/>
+      <c r="G134" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D39" r:id="rId1" xr:uid="{0817C850-0297-485B-8569-1C4BE7C26F02}"/>
+    <hyperlink ref="D38" r:id="rId1" xr:uid="{0817C850-0297-485B-8569-1C4BE7C26F02}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
@@ -5488,7 +8420,7 @@
         <v>42</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
       <c r="D3" s="14"/>
       <c r="E3" s="2"/>
@@ -5522,7 +8454,7 @@
     <row r="7" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B7" s="10"/>
       <c r="C7" s="3" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="D7" s="14"/>
     </row>
@@ -5539,7 +8471,7 @@
         <v>47</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="2:5" ht="31.2" x14ac:dyDescent="0.3">
@@ -5547,7 +8479,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="D10" s="5"/>
     </row>
@@ -5559,7 +8491,7 @@
         <v>20</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>182</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="2:5" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -5567,39 +8499,39 @@
         <v>22</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>183</v>
+        <v>160</v>
       </c>
     </row>
     <row r="13" spans="2:5" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C13" s="14" t="s">
-        <v>181</v>
+        <v>158</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14" spans="2:5" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C14" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>186</v>
+        <v>161</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="15" spans="2:5" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C15" s="14" t="s">
-        <v>185</v>
-      </c>
-      <c r="D15" s="20" t="s">
-        <v>186</v>
+        <v>162</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="16" spans="2:5" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C16" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="D16" s="20" t="s">
-        <v>187</v>
+        <v>161</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="17" spans="2:8" s="2" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
@@ -5615,7 +8547,7 @@
         <v>6</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="D18" s="3"/>
     </row>
@@ -5630,16 +8562,16 @@
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3" t="s">
-        <v>188</v>
+        <v>165</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2" t="s">
-        <v>199</v>
+        <v>176</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.3">
@@ -5659,7 +8591,7 @@
         <v>42</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>189</v>
+        <v>166</v>
       </c>
       <c r="D24" s="14"/>
     </row>
@@ -5689,7 +8621,7 @@
     <row r="28" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B28" s="10"/>
       <c r="C28" s="3" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="D28" s="14"/>
     </row>
@@ -5706,19 +8638,19 @@
         <v>47</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E30" s="15" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F30" s="15" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="G30" s="15" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="H30" s="15" t="s">
-        <v>197</v>
+        <v>174</v>
       </c>
     </row>
     <row r="31" spans="2:8" ht="31.2" x14ac:dyDescent="0.3">
@@ -5726,7 +8658,7 @@
         <v>2</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
@@ -5740,16 +8672,16 @@
         <v>20</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>182</v>
+        <v>159</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>182</v>
+        <v>159</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
     </row>
     <row r="33" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
@@ -5758,88 +8690,88 @@
         <v>22</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>183</v>
+        <v>160</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>183</v>
+        <v>160</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>174</v>
+        <v>152</v>
       </c>
     </row>
     <row r="34" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B34" s="2"/>
       <c r="C34" s="14" t="s">
-        <v>181</v>
+        <v>158</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
     </row>
     <row r="35" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B35" s="2"/>
       <c r="C35" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="D35" s="20" t="s">
-        <v>186</v>
-      </c>
-      <c r="E35" s="20" t="s">
-        <v>192</v>
-      </c>
-      <c r="F35" s="20" t="s">
-        <v>186</v>
-      </c>
-      <c r="G35" s="20" t="s">
-        <v>186</v>
+        <v>161</v>
+      </c>
+      <c r="D35" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="E35" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="F35" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="G35" s="18" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="36" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B36" s="2"/>
       <c r="C36" s="14" t="s">
-        <v>185</v>
-      </c>
-      <c r="D36" s="20" t="s">
-        <v>186</v>
-      </c>
-      <c r="E36" s="20" t="s">
-        <v>193</v>
-      </c>
-      <c r="F36" s="20" t="s">
-        <v>186</v>
-      </c>
-      <c r="G36" s="20" t="s">
-        <v>186</v>
+        <v>162</v>
+      </c>
+      <c r="D36" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="E36" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="F36" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="G36" s="18" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="37" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B37" s="2"/>
       <c r="C37" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="D37" s="20" t="s">
-        <v>187</v>
-      </c>
-      <c r="E37" s="20" t="s">
-        <v>187</v>
-      </c>
-      <c r="F37" s="20" t="s">
-        <v>187</v>
-      </c>
-      <c r="G37" s="20" t="s">
-        <v>187</v>
+        <v>161</v>
+      </c>
+      <c r="D37" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="E37" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="F37" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="G37" s="18" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="38" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
@@ -5847,16 +8779,16 @@
       <c r="C38" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D38" s="20" t="s">
-        <v>191</v>
-      </c>
-      <c r="E38" s="20" t="s">
+      <c r="D38" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="E38" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="F38" s="20" t="s">
+      <c r="F38" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="G38" s="20" t="s">
+      <c r="G38" s="18" t="s">
         <v>5</v>
       </c>
     </row>
@@ -5865,7 +8797,7 @@
         <v>6</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
@@ -5881,53 +8813,53 @@
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="3" t="s">
-        <v>198</v>
+        <v>175</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>198</v>
+        <v>175</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>198</v>
+        <v>175</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>198</v>
+        <v>175</v>
       </c>
     </row>
     <row r="42" spans="2:7" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B42" s="12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="E42" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>195</v>
+        <v>172</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.3">
       <c r="E43" t="s">
-        <v>194</v>
+        <v>171</v>
       </c>
       <c r="G43" t="s">
-        <v>196</v>
+        <v>173</v>
       </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>200</v>
+        <v>177</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>200</v>
+        <v>177</v>
       </c>
     </row>
     <row r="46" spans="2:7" ht="15.6" x14ac:dyDescent="0.3">
@@ -5943,7 +8875,7 @@
         <v>42</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>202</v>
+        <v>179</v>
       </c>
       <c r="D47" s="14"/>
       <c r="E47" s="2"/>
@@ -5977,7 +8909,7 @@
     <row r="51" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B51" s="10"/>
       <c r="C51" s="3" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="D51" s="14"/>
       <c r="E51" s="2"/>
@@ -5996,7 +8928,7 @@
         <v>47</v>
       </c>
       <c r="D53" s="15" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E53" s="15"/>
     </row>
@@ -6005,7 +8937,7 @@
         <v>2</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="D54" s="5"/>
       <c r="E54" s="5"/>
@@ -6026,14 +8958,14 @@
         <v>22</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>183</v>
+        <v>160</v>
       </c>
       <c r="E56" s="2"/>
     </row>
     <row r="57" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B57" s="2"/>
       <c r="C57" s="14" t="s">
-        <v>181</v>
+        <v>158</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>4</v>
@@ -6045,17 +8977,17 @@
       <c r="C58" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D58" s="20" t="s">
+      <c r="D58" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="E58" s="20"/>
+      <c r="E58" s="18"/>
     </row>
     <row r="59" spans="2:5" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B59" s="2">
         <v>6</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
@@ -6072,17 +9004,17 @@
       </c>
       <c r="C61" s="3"/>
       <c r="D61" s="3" t="s">
-        <v>198</v>
+        <v>175</v>
       </c>
       <c r="E61" s="3"/>
     </row>
     <row r="62" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B62" s="12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" s="6" t="s">
-        <v>203</v>
+        <v>180</v>
       </c>
       <c r="E62" s="2"/>
     </row>
